--- a/static/download/2023/RP3_APT_ATFM_SLOT_2023_Jan_Apr.xlsx
+++ b/static/download/2023/RP3_APT_ATFM_SLOT_2023_Jan_Apr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\05-release-20230510T160119Z-001\05-release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\05-release-20230515T215334Z-001\05-release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4119806C-2B23-43B3-B113-9D95C1CA6EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13072EC9-91AC-4F5F-A448-FCAECDDACEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APT_ATFM_ADH_LOC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="341">
   <si>
     <t>Data source</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>Period: JAN-APR</t>
@@ -1532,7 +1535,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="45056.751618055554" refreshedVersion="8" recordCount="145" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="HEGENDORFER Holger" refreshedDate="45061.996522337962" refreshedVersion="8" recordCount="145" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:F150" sheet="APT_ATFM_ADH_APT"/>
   </cacheSource>
@@ -3196,19 +3199,19 @@
   <dimension ref="A1:F530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="2" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>ATFM slot adherence</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -3259,15 +3262,15 @@
         <v>8</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -3277,39 +3280,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
       <c r="B5" s="42" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
       <c r="E5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="47">
         <v>6</v>
@@ -3326,9 +3329,9 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="51">
         <v>1</v>
@@ -3345,9 +3348,9 @@
       </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="51">
         <v>1</v>
@@ -3364,9 +3367,9 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -3383,9 +3386,9 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="51">
         <v>2</v>
@@ -3402,9 +3405,9 @@
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="51">
         <v>1</v>
@@ -3421,9 +3424,9 @@
       </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="51">
         <v>58</v>
@@ -3440,9 +3443,9 @@
       </c>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="51">
         <v>15</v>
@@ -3459,9 +3462,9 @@
       </c>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="51">
         <v>1</v>
@@ -3478,9 +3481,9 @@
       </c>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="51">
         <v>1</v>
@@ -3497,9 +3500,9 @@
       </c>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="51">
         <v>3</v>
@@ -3516,9 +3519,9 @@
       </c>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="51">
         <v>5</v>
@@ -3535,9 +3538,9 @@
       </c>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="51">
         <v>2</v>
@@ -3554,9 +3557,9 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="51">
         <v>1</v>
@@ -3573,9 +3576,9 @@
       </c>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="51">
         <v>1</v>
@@ -3592,9 +3595,9 @@
       </c>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="51">
         <v>4</v>
@@ -3611,9 +3614,9 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="51">
         <v>4</v>
@@ -3630,9 +3633,9 @@
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="51">
         <v>14</v>
@@ -3649,9 +3652,9 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="51">
         <v>9</v>
@@ -3668,9 +3671,9 @@
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="51">
         <v>2</v>
@@ -3687,9 +3690,9 @@
       </c>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="51">
         <v>7</v>
@@ -3706,9 +3709,9 @@
       </c>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="51">
         <v>1</v>
@@ -3725,9 +3728,9 @@
       </c>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="55">
         <v>2</v>
@@ -3744,7 +3747,7 @@
       </c>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -3752,7 +3755,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -3760,7 +3763,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -3768,7 +3771,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -3776,7 +3779,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -3784,7 +3787,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -3792,7 +3795,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -3800,7 +3803,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -3808,7 +3811,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -3816,7 +3819,7 @@
       <c r="E38" s="19"/>
       <c r="F38" s="16"/>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -3824,7 +3827,7 @@
       <c r="E39" s="19"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -3832,7 +3835,7 @@
       <c r="E40" s="19"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -3840,7 +3843,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -3848,7 +3851,7 @@
       <c r="E42" s="19"/>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -3856,7 +3859,7 @@
       <c r="E43" s="19"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -3864,7 +3867,7 @@
       <c r="E44" s="19"/>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -3872,7 +3875,7 @@
       <c r="E45" s="19"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -3880,7 +3883,7 @@
       <c r="E46" s="19"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -3888,7 +3891,7 @@
       <c r="E47" s="19"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -3896,7 +3899,7 @@
       <c r="E48" s="19"/>
       <c r="F48" s="16"/>
     </row>
-    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -3904,7 +3907,7 @@
       <c r="E49" s="19"/>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -3912,7 +3915,7 @@
       <c r="E50" s="19"/>
       <c r="F50" s="16"/>
     </row>
-    <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -3920,7 +3923,7 @@
       <c r="E51" s="19"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -3928,7 +3931,7 @@
       <c r="E52" s="19"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -3936,7 +3939,7 @@
       <c r="E53" s="19"/>
       <c r="F53" s="16"/>
     </row>
-    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -3944,7 +3947,7 @@
       <c r="E54" s="19"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -3952,7 +3955,7 @@
       <c r="E55" s="19"/>
       <c r="F55" s="16"/>
     </row>
-    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -3960,7 +3963,7 @@
       <c r="E56" s="19"/>
       <c r="F56" s="16"/>
     </row>
-    <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -3968,7 +3971,7 @@
       <c r="E57" s="19"/>
       <c r="F57" s="16"/>
     </row>
-    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -3976,7 +3979,7 @@
       <c r="E58" s="19"/>
       <c r="F58" s="16"/>
     </row>
-    <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -3984,7 +3987,7 @@
       <c r="E59" s="19"/>
       <c r="F59" s="16"/>
     </row>
-    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -3992,7 +3995,7 @@
       <c r="E60" s="19"/>
       <c r="F60" s="16"/>
     </row>
-    <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -4000,7 +4003,7 @@
       <c r="E61" s="19"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -4008,7 +4011,7 @@
       <c r="E62" s="19"/>
       <c r="F62" s="16"/>
     </row>
-    <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -4016,7 +4019,7 @@
       <c r="E63" s="19"/>
       <c r="F63" s="16"/>
     </row>
-    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -4024,7 +4027,7 @@
       <c r="E64" s="19"/>
       <c r="F64" s="16"/>
     </row>
-    <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -4032,7 +4035,7 @@
       <c r="E65" s="19"/>
       <c r="F65" s="16"/>
     </row>
-    <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -4040,7 +4043,7 @@
       <c r="E66" s="19"/>
       <c r="F66" s="16"/>
     </row>
-    <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -4048,7 +4051,7 @@
       <c r="E67" s="19"/>
       <c r="F67" s="16"/>
     </row>
-    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -4056,7 +4059,7 @@
       <c r="E68" s="19"/>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -4064,7 +4067,7 @@
       <c r="E69" s="19"/>
       <c r="F69" s="16"/>
     </row>
-    <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -4072,7 +4075,7 @@
       <c r="E70" s="19"/>
       <c r="F70" s="16"/>
     </row>
-    <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -4080,7 +4083,7 @@
       <c r="E71" s="19"/>
       <c r="F71" s="16"/>
     </row>
-    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -4088,7 +4091,7 @@
       <c r="E72" s="19"/>
       <c r="F72" s="16"/>
     </row>
-    <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -4096,7 +4099,7 @@
       <c r="E73" s="19"/>
       <c r="F73" s="16"/>
     </row>
-    <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -4104,7 +4107,7 @@
       <c r="E74" s="19"/>
       <c r="F74" s="16"/>
     </row>
-    <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -4112,7 +4115,7 @@
       <c r="E75" s="19"/>
       <c r="F75" s="16"/>
     </row>
-    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -4120,7 +4123,7 @@
       <c r="E76" s="19"/>
       <c r="F76" s="16"/>
     </row>
-    <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -4128,7 +4131,7 @@
       <c r="E77" s="19"/>
       <c r="F77" s="16"/>
     </row>
-    <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -4136,7 +4139,7 @@
       <c r="E78" s="19"/>
       <c r="F78" s="16"/>
     </row>
-    <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -4144,7 +4147,7 @@
       <c r="E79" s="19"/>
       <c r="F79" s="16"/>
     </row>
-    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -4152,7 +4155,7 @@
       <c r="E80" s="19"/>
       <c r="F80" s="16"/>
     </row>
-    <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -4160,7 +4163,7 @@
       <c r="E81" s="19"/>
       <c r="F81" s="16"/>
     </row>
-    <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -4168,7 +4171,7 @@
       <c r="E82" s="19"/>
       <c r="F82" s="16"/>
     </row>
-    <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
@@ -4176,7 +4179,7 @@
       <c r="E83" s="19"/>
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -4184,7 +4187,7 @@
       <c r="E84" s="19"/>
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -4192,7 +4195,7 @@
       <c r="E85" s="19"/>
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -4200,7 +4203,7 @@
       <c r="E86" s="19"/>
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -4208,7 +4211,7 @@
       <c r="E87" s="19"/>
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -4216,7 +4219,7 @@
       <c r="E88" s="19"/>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -4224,7 +4227,7 @@
       <c r="E89" s="19"/>
       <c r="F89" s="16"/>
     </row>
-    <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -4232,7 +4235,7 @@
       <c r="E90" s="19"/>
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
@@ -4240,7 +4243,7 @@
       <c r="E91" s="19"/>
       <c r="F91" s="16"/>
     </row>
-    <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
@@ -4248,7 +4251,7 @@
       <c r="E92" s="19"/>
       <c r="F92" s="16"/>
     </row>
-    <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
@@ -4256,7 +4259,7 @@
       <c r="E93" s="19"/>
       <c r="F93" s="16"/>
     </row>
-    <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -4264,7 +4267,7 @@
       <c r="E94" s="19"/>
       <c r="F94" s="16"/>
     </row>
-    <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -4272,7 +4275,7 @@
       <c r="E95" s="19"/>
       <c r="F95" s="16"/>
     </row>
-    <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
@@ -4280,7 +4283,7 @@
       <c r="E96" s="19"/>
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
@@ -4288,7 +4291,7 @@
       <c r="E97" s="19"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
@@ -4296,7 +4299,7 @@
       <c r="E98" s="19"/>
       <c r="F98" s="16"/>
     </row>
-    <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="18"/>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
@@ -4304,7 +4307,7 @@
       <c r="E99" s="19"/>
       <c r="F99" s="16"/>
     </row>
-    <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
@@ -4312,7 +4315,7 @@
       <c r="E100" s="19"/>
       <c r="F100" s="16"/>
     </row>
-    <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="18"/>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
@@ -4320,7 +4323,7 @@
       <c r="E101" s="19"/>
       <c r="F101" s="16"/>
     </row>
-    <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="18"/>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -4328,7 +4331,7 @@
       <c r="E102" s="19"/>
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="18"/>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
@@ -4336,7 +4339,7 @@
       <c r="E103" s="19"/>
       <c r="F103" s="16"/>
     </row>
-    <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="18"/>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
@@ -4344,7 +4347,7 @@
       <c r="E104" s="19"/>
       <c r="F104" s="16"/>
     </row>
-    <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="18"/>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
@@ -4352,7 +4355,7 @@
       <c r="E105" s="19"/>
       <c r="F105" s="16"/>
     </row>
-    <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="18"/>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
@@ -4360,7 +4363,7 @@
       <c r="E106" s="19"/>
       <c r="F106" s="16"/>
     </row>
-    <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="18"/>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
@@ -4368,7 +4371,7 @@
       <c r="E107" s="19"/>
       <c r="F107" s="16"/>
     </row>
-    <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="18"/>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -4376,7 +4379,7 @@
       <c r="E108" s="19"/>
       <c r="F108" s="16"/>
     </row>
-    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -4384,7 +4387,7 @@
       <c r="E109" s="19"/>
       <c r="F109" s="16"/>
     </row>
-    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="18"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -4392,7 +4395,7 @@
       <c r="E110" s="19"/>
       <c r="F110" s="16"/>
     </row>
-    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="18"/>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
@@ -4400,7 +4403,7 @@
       <c r="E111" s="19"/>
       <c r="F111" s="16"/>
     </row>
-    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -4408,7 +4411,7 @@
       <c r="E112" s="19"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
@@ -4416,7 +4419,7 @@
       <c r="E113" s="19"/>
       <c r="F113" s="16"/>
     </row>
-    <row r="114" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
@@ -4424,7 +4427,7 @@
       <c r="E114" s="19"/>
       <c r="F114" s="16"/>
     </row>
-    <row r="115" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="18"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
@@ -4432,7 +4435,7 @@
       <c r="E115" s="19"/>
       <c r="F115" s="16"/>
     </row>
-    <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
@@ -4440,7 +4443,7 @@
       <c r="E116" s="19"/>
       <c r="F116" s="16"/>
     </row>
-    <row r="117" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="18"/>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
@@ -4448,7 +4451,7 @@
       <c r="E117" s="19"/>
       <c r="F117" s="16"/>
     </row>
-    <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="18"/>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
@@ -4456,7 +4459,7 @@
       <c r="E118" s="19"/>
       <c r="F118" s="16"/>
     </row>
-    <row r="119" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
@@ -4464,7 +4467,7 @@
       <c r="E119" s="19"/>
       <c r="F119" s="16"/>
     </row>
-    <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="18"/>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
@@ -4472,7 +4475,7 @@
       <c r="E120" s="19"/>
       <c r="F120" s="16"/>
     </row>
-    <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="18"/>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
@@ -4480,7 +4483,7 @@
       <c r="E121" s="19"/>
       <c r="F121" s="16"/>
     </row>
-    <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
@@ -4488,7 +4491,7 @@
       <c r="E122" s="19"/>
       <c r="F122" s="16"/>
     </row>
-    <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="18"/>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
@@ -4496,7 +4499,7 @@
       <c r="E123" s="19"/>
       <c r="F123" s="16"/>
     </row>
-    <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="18"/>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
@@ -4504,7 +4507,7 @@
       <c r="E124" s="19"/>
       <c r="F124" s="16"/>
     </row>
-    <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="18"/>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
@@ -4512,7 +4515,7 @@
       <c r="E125" s="19"/>
       <c r="F125" s="16"/>
     </row>
-    <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -4520,7 +4523,7 @@
       <c r="E126" s="19"/>
       <c r="F126" s="16"/>
     </row>
-    <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -4528,7 +4531,7 @@
       <c r="E127" s="19"/>
       <c r="F127" s="16"/>
     </row>
-    <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
@@ -4536,7 +4539,7 @@
       <c r="E128" s="19"/>
       <c r="F128" s="16"/>
     </row>
-    <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
@@ -4544,7 +4547,7 @@
       <c r="E129" s="19"/>
       <c r="F129" s="16"/>
     </row>
-    <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -4552,7 +4555,7 @@
       <c r="E130" s="19"/>
       <c r="F130" s="16"/>
     </row>
-    <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
@@ -4560,7 +4563,7 @@
       <c r="E131" s="19"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -4568,7 +4571,7 @@
       <c r="E132" s="19"/>
       <c r="F132" s="16"/>
     </row>
-    <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="18"/>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
@@ -4576,7 +4579,7 @@
       <c r="E133" s="19"/>
       <c r="F133" s="16"/>
     </row>
-    <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="18"/>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
@@ -4584,7 +4587,7 @@
       <c r="E134" s="19"/>
       <c r="F134" s="16"/>
     </row>
-    <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="18"/>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
@@ -4592,7 +4595,7 @@
       <c r="E135" s="19"/>
       <c r="F135" s="16"/>
     </row>
-    <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="18"/>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
@@ -4600,7 +4603,7 @@
       <c r="E136" s="19"/>
       <c r="F136" s="16"/>
     </row>
-    <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="18"/>
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
@@ -4608,7 +4611,7 @@
       <c r="E137" s="19"/>
       <c r="F137" s="16"/>
     </row>
-    <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="18"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -4616,7 +4619,7 @@
       <c r="E138" s="19"/>
       <c r="F138" s="16"/>
     </row>
-    <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="18"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
@@ -4624,7 +4627,7 @@
       <c r="E139" s="19"/>
       <c r="F139" s="16"/>
     </row>
-    <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="18"/>
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
@@ -4632,7 +4635,7 @@
       <c r="E140" s="19"/>
       <c r="F140" s="16"/>
     </row>
-    <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="18"/>
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
@@ -4640,7 +4643,7 @@
       <c r="E141" s="19"/>
       <c r="F141" s="16"/>
     </row>
-    <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="18"/>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
@@ -4648,7 +4651,7 @@
       <c r="E142" s="19"/>
       <c r="F142" s="16"/>
     </row>
-    <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="18"/>
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
@@ -4656,7 +4659,7 @@
       <c r="E143" s="19"/>
       <c r="F143" s="16"/>
     </row>
-    <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="18"/>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
@@ -4664,7 +4667,7 @@
       <c r="E144" s="19"/>
       <c r="F144" s="16"/>
     </row>
-    <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="18"/>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
@@ -4672,7 +4675,7 @@
       <c r="E145" s="19"/>
       <c r="F145" s="16"/>
     </row>
-    <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="18"/>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
@@ -4680,7 +4683,7 @@
       <c r="E146" s="19"/>
       <c r="F146" s="16"/>
     </row>
-    <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="18"/>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
@@ -4688,7 +4691,7 @@
       <c r="E147" s="19"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="18"/>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
@@ -4696,7 +4699,7 @@
       <c r="E148" s="19"/>
       <c r="F148" s="16"/>
     </row>
-    <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="18"/>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
@@ -4704,7 +4707,7 @@
       <c r="E149" s="19"/>
       <c r="F149" s="16"/>
     </row>
-    <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="18"/>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
@@ -4712,7 +4715,7 @@
       <c r="E150" s="19"/>
       <c r="F150" s="16"/>
     </row>
-    <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="18"/>
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
@@ -4720,7 +4723,7 @@
       <c r="E151" s="19"/>
       <c r="F151" s="16"/>
     </row>
-    <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="18"/>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
@@ -4728,7 +4731,7 @@
       <c r="E152" s="19"/>
       <c r="F152" s="16"/>
     </row>
-    <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="18"/>
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
@@ -4736,7 +4739,7 @@
       <c r="E153" s="19"/>
       <c r="F153" s="16"/>
     </row>
-    <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="18"/>
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
@@ -4744,7 +4747,7 @@
       <c r="E154" s="19"/>
       <c r="F154" s="16"/>
     </row>
-    <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="18"/>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
@@ -4752,7 +4755,7 @@
       <c r="E155" s="19"/>
       <c r="F155" s="16"/>
     </row>
-    <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="18"/>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
@@ -4760,7 +4763,7 @@
       <c r="E156" s="19"/>
       <c r="F156" s="16"/>
     </row>
-    <row r="157" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="18"/>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
@@ -4768,7 +4771,7 @@
       <c r="E157" s="19"/>
       <c r="F157" s="16"/>
     </row>
-    <row r="158" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -4776,7 +4779,7 @@
       <c r="E158" s="19"/>
       <c r="F158" s="16"/>
     </row>
-    <row r="159" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="18"/>
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
@@ -4784,7 +4787,7 @@
       <c r="E159" s="19"/>
       <c r="F159" s="16"/>
     </row>
-    <row r="160" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="18"/>
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
@@ -4792,7 +4795,7 @@
       <c r="E160" s="19"/>
       <c r="F160" s="16"/>
     </row>
-    <row r="161" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="18"/>
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
@@ -4800,7 +4803,7 @@
       <c r="E161" s="19"/>
       <c r="F161" s="16"/>
     </row>
-    <row r="162" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
@@ -4808,7 +4811,7 @@
       <c r="E162" s="19"/>
       <c r="F162" s="16"/>
     </row>
-    <row r="163" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="18"/>
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
@@ -4816,7 +4819,7 @@
       <c r="E163" s="19"/>
       <c r="F163" s="16"/>
     </row>
-    <row r="164" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="18"/>
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
@@ -4824,7 +4827,7 @@
       <c r="E164" s="19"/>
       <c r="F164" s="16"/>
     </row>
-    <row r="165" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="18"/>
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
@@ -4832,7 +4835,7 @@
       <c r="E165" s="19"/>
       <c r="F165" s="16"/>
     </row>
-    <row r="166" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="18"/>
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
@@ -4840,7 +4843,7 @@
       <c r="E166" s="19"/>
       <c r="F166" s="16"/>
     </row>
-    <row r="167" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="18"/>
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
@@ -4848,7 +4851,7 @@
       <c r="E167" s="19"/>
       <c r="F167" s="16"/>
     </row>
-    <row r="168" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="18"/>
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
@@ -4856,7 +4859,7 @@
       <c r="E168" s="19"/>
       <c r="F168" s="16"/>
     </row>
-    <row r="169" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="18"/>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
@@ -4864,7 +4867,7 @@
       <c r="E169" s="19"/>
       <c r="F169" s="16"/>
     </row>
-    <row r="170" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="18"/>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
@@ -4872,7 +4875,7 @@
       <c r="E170" s="19"/>
       <c r="F170" s="16"/>
     </row>
-    <row r="171" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="18"/>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
@@ -4880,7 +4883,7 @@
       <c r="E171" s="19"/>
       <c r="F171" s="16"/>
     </row>
-    <row r="172" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="18"/>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
@@ -4888,7 +4891,7 @@
       <c r="E172" s="19"/>
       <c r="F172" s="16"/>
     </row>
-    <row r="173" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="18"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
@@ -4896,7 +4899,7 @@
       <c r="E173" s="19"/>
       <c r="F173" s="16"/>
     </row>
-    <row r="174" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
@@ -4904,7 +4907,7 @@
       <c r="E174" s="19"/>
       <c r="F174" s="16"/>
     </row>
-    <row r="175" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="18"/>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
@@ -4912,7 +4915,7 @@
       <c r="E175" s="19"/>
       <c r="F175" s="16"/>
     </row>
-    <row r="176" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
@@ -4920,7 +4923,7 @@
       <c r="E176" s="19"/>
       <c r="F176" s="16"/>
     </row>
-    <row r="177" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="18"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
@@ -4928,7 +4931,7 @@
       <c r="E177" s="19"/>
       <c r="F177" s="16"/>
     </row>
-    <row r="178" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="18"/>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
@@ -4936,7 +4939,7 @@
       <c r="E178" s="19"/>
       <c r="F178" s="16"/>
     </row>
-    <row r="179" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="18"/>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
@@ -4944,7 +4947,7 @@
       <c r="E179" s="19"/>
       <c r="F179" s="16"/>
     </row>
-    <row r="180" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="18"/>
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
@@ -4952,7 +4955,7 @@
       <c r="E180" s="19"/>
       <c r="F180" s="16"/>
     </row>
-    <row r="181" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="18"/>
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
@@ -4960,7 +4963,7 @@
       <c r="E181" s="19"/>
       <c r="F181" s="16"/>
     </row>
-    <row r="182" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="18"/>
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
@@ -4968,7 +4971,7 @@
       <c r="E182" s="19"/>
       <c r="F182" s="16"/>
     </row>
-    <row r="183" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="18"/>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
@@ -4976,7 +4979,7 @@
       <c r="E183" s="19"/>
       <c r="F183" s="16"/>
     </row>
-    <row r="184" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="18"/>
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
@@ -4984,7 +4987,7 @@
       <c r="E184" s="19"/>
       <c r="F184" s="16"/>
     </row>
-    <row r="185" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="18"/>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
@@ -4992,7 +4995,7 @@
       <c r="E185" s="19"/>
       <c r="F185" s="16"/>
     </row>
-    <row r="186" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="18"/>
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
@@ -5000,7 +5003,7 @@
       <c r="E186" s="19"/>
       <c r="F186" s="16"/>
     </row>
-    <row r="187" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="18"/>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
@@ -5008,7 +5011,7 @@
       <c r="E187" s="19"/>
       <c r="F187" s="16"/>
     </row>
-    <row r="188" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="18"/>
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
@@ -5016,7 +5019,7 @@
       <c r="E188" s="19"/>
       <c r="F188" s="16"/>
     </row>
-    <row r="189" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="18"/>
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
@@ -5024,7 +5027,7 @@
       <c r="E189" s="19"/>
       <c r="F189" s="16"/>
     </row>
-    <row r="190" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="18"/>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
@@ -5032,7 +5035,7 @@
       <c r="E190" s="19"/>
       <c r="F190" s="16"/>
     </row>
-    <row r="191" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="18"/>
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
@@ -5040,7 +5043,7 @@
       <c r="E191" s="19"/>
       <c r="F191" s="16"/>
     </row>
-    <row r="192" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="18"/>
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
@@ -5048,7 +5051,7 @@
       <c r="E192" s="19"/>
       <c r="F192" s="16"/>
     </row>
-    <row r="193" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="18"/>
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
@@ -5056,7 +5059,7 @@
       <c r="E193" s="19"/>
       <c r="F193" s="16"/>
     </row>
-    <row r="194" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="18"/>
       <c r="B194" s="18"/>
       <c r="C194" s="18"/>
@@ -5064,7 +5067,7 @@
       <c r="E194" s="19"/>
       <c r="F194" s="16"/>
     </row>
-    <row r="195" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="18"/>
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
@@ -5072,7 +5075,7 @@
       <c r="E195" s="19"/>
       <c r="F195" s="16"/>
     </row>
-    <row r="196" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="18"/>
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
@@ -5080,7 +5083,7 @@
       <c r="E196" s="19"/>
       <c r="F196" s="16"/>
     </row>
-    <row r="197" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="18"/>
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
@@ -5088,7 +5091,7 @@
       <c r="E197" s="19"/>
       <c r="F197" s="16"/>
     </row>
-    <row r="198" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="18"/>
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
@@ -5096,7 +5099,7 @@
       <c r="E198" s="19"/>
       <c r="F198" s="16"/>
     </row>
-    <row r="199" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="18"/>
       <c r="B199" s="18"/>
       <c r="C199" s="18"/>
@@ -5104,7 +5107,7 @@
       <c r="E199" s="19"/>
       <c r="F199" s="16"/>
     </row>
-    <row r="200" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="18"/>
       <c r="B200" s="18"/>
       <c r="C200" s="18"/>
@@ -5112,7 +5115,7 @@
       <c r="E200" s="19"/>
       <c r="F200" s="16"/>
     </row>
-    <row r="201" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="18"/>
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
@@ -5120,7 +5123,7 @@
       <c r="E201" s="19"/>
       <c r="F201" s="16"/>
     </row>
-    <row r="202" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="18"/>
       <c r="B202" s="18"/>
       <c r="C202" s="18"/>
@@ -5128,7 +5131,7 @@
       <c r="E202" s="19"/>
       <c r="F202" s="16"/>
     </row>
-    <row r="203" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="18"/>
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
@@ -5136,7 +5139,7 @@
       <c r="E203" s="19"/>
       <c r="F203" s="16"/>
     </row>
-    <row r="204" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="18"/>
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
@@ -5144,7 +5147,7 @@
       <c r="E204" s="19"/>
       <c r="F204" s="16"/>
     </row>
-    <row r="205" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="18"/>
       <c r="B205" s="18"/>
       <c r="C205" s="18"/>
@@ -5152,7 +5155,7 @@
       <c r="E205" s="19"/>
       <c r="F205" s="16"/>
     </row>
-    <row r="206" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="18"/>
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
@@ -5160,7 +5163,7 @@
       <c r="E206" s="19"/>
       <c r="F206" s="16"/>
     </row>
-    <row r="207" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -5168,7 +5171,7 @@
       <c r="E207" s="19"/>
       <c r="F207" s="16"/>
     </row>
-    <row r="208" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="18"/>
       <c r="B208" s="18"/>
       <c r="C208" s="18"/>
@@ -5176,7 +5179,7 @@
       <c r="E208" s="19"/>
       <c r="F208" s="16"/>
     </row>
-    <row r="209" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="18"/>
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
@@ -5184,7 +5187,7 @@
       <c r="E209" s="19"/>
       <c r="F209" s="16"/>
     </row>
-    <row r="210" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="18"/>
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
@@ -5192,7 +5195,7 @@
       <c r="E210" s="19"/>
       <c r="F210" s="16"/>
     </row>
-    <row r="211" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="18"/>
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
@@ -5200,7 +5203,7 @@
       <c r="E211" s="19"/>
       <c r="F211" s="16"/>
     </row>
-    <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="18"/>
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
@@ -5208,7 +5211,7 @@
       <c r="E212" s="19"/>
       <c r="F212" s="16"/>
     </row>
-    <row r="213" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="18"/>
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
@@ -5216,7 +5219,7 @@
       <c r="E213" s="19"/>
       <c r="F213" s="16"/>
     </row>
-    <row r="214" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="18"/>
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
@@ -5224,7 +5227,7 @@
       <c r="E214" s="19"/>
       <c r="F214" s="16"/>
     </row>
-    <row r="215" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="18"/>
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
@@ -5232,7 +5235,7 @@
       <c r="E215" s="19"/>
       <c r="F215" s="16"/>
     </row>
-    <row r="216" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="18"/>
       <c r="B216" s="18"/>
       <c r="C216" s="18"/>
@@ -5240,7 +5243,7 @@
       <c r="E216" s="19"/>
       <c r="F216" s="16"/>
     </row>
-    <row r="217" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="18"/>
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
@@ -5248,7 +5251,7 @@
       <c r="E217" s="19"/>
       <c r="F217" s="16"/>
     </row>
-    <row r="218" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="18"/>
       <c r="B218" s="18"/>
       <c r="C218" s="18"/>
@@ -5256,7 +5259,7 @@
       <c r="E218" s="19"/>
       <c r="F218" s="16"/>
     </row>
-    <row r="219" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="18"/>
       <c r="B219" s="18"/>
       <c r="C219" s="18"/>
@@ -5264,7 +5267,7 @@
       <c r="E219" s="19"/>
       <c r="F219" s="16"/>
     </row>
-    <row r="220" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="18"/>
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
@@ -5272,7 +5275,7 @@
       <c r="E220" s="19"/>
       <c r="F220" s="16"/>
     </row>
-    <row r="221" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="18"/>
       <c r="B221" s="18"/>
       <c r="C221" s="18"/>
@@ -5280,7 +5283,7 @@
       <c r="E221" s="19"/>
       <c r="F221" s="16"/>
     </row>
-    <row r="222" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="18"/>
       <c r="B222" s="18"/>
       <c r="C222" s="18"/>
@@ -5288,7 +5291,7 @@
       <c r="E222" s="19"/>
       <c r="F222" s="16"/>
     </row>
-    <row r="223" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="18"/>
       <c r="B223" s="18"/>
       <c r="C223" s="18"/>
@@ -5296,7 +5299,7 @@
       <c r="E223" s="19"/>
       <c r="F223" s="16"/>
     </row>
-    <row r="224" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="18"/>
       <c r="B224" s="18"/>
       <c r="C224" s="18"/>
@@ -5304,7 +5307,7 @@
       <c r="E224" s="19"/>
       <c r="F224" s="16"/>
     </row>
-    <row r="225" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="18"/>
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
@@ -5312,7 +5315,7 @@
       <c r="E225" s="19"/>
       <c r="F225" s="16"/>
     </row>
-    <row r="226" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="18"/>
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
@@ -5320,7 +5323,7 @@
       <c r="E226" s="19"/>
       <c r="F226" s="16"/>
     </row>
-    <row r="227" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="18"/>
       <c r="B227" s="18"/>
       <c r="C227" s="18"/>
@@ -5328,7 +5331,7 @@
       <c r="E227" s="19"/>
       <c r="F227" s="16"/>
     </row>
-    <row r="228" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="18"/>
       <c r="B228" s="18"/>
       <c r="C228" s="18"/>
@@ -5336,7 +5339,7 @@
       <c r="E228" s="19"/>
       <c r="F228" s="16"/>
     </row>
-    <row r="229" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="18"/>
       <c r="B229" s="18"/>
       <c r="C229" s="18"/>
@@ -5344,7 +5347,7 @@
       <c r="E229" s="19"/>
       <c r="F229" s="16"/>
     </row>
-    <row r="230" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="18"/>
       <c r="B230" s="18"/>
       <c r="C230" s="18"/>
@@ -5352,7 +5355,7 @@
       <c r="E230" s="19"/>
       <c r="F230" s="16"/>
     </row>
-    <row r="231" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="18"/>
       <c r="B231" s="18"/>
       <c r="C231" s="18"/>
@@ -5360,7 +5363,7 @@
       <c r="E231" s="19"/>
       <c r="F231" s="16"/>
     </row>
-    <row r="232" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="18"/>
       <c r="B232" s="18"/>
       <c r="C232" s="18"/>
@@ -5368,7 +5371,7 @@
       <c r="E232" s="19"/>
       <c r="F232" s="16"/>
     </row>
-    <row r="233" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="18"/>
       <c r="B233" s="18"/>
       <c r="C233" s="18"/>
@@ -5376,7 +5379,7 @@
       <c r="E233" s="19"/>
       <c r="F233" s="16"/>
     </row>
-    <row r="234" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="18"/>
       <c r="B234" s="18"/>
       <c r="C234" s="18"/>
@@ -5384,7 +5387,7 @@
       <c r="E234" s="19"/>
       <c r="F234" s="16"/>
     </row>
-    <row r="235" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="18"/>
       <c r="B235" s="18"/>
       <c r="C235" s="18"/>
@@ -5392,7 +5395,7 @@
       <c r="E235" s="19"/>
       <c r="F235" s="16"/>
     </row>
-    <row r="236" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="18"/>
       <c r="B236" s="18"/>
       <c r="C236" s="18"/>
@@ -5400,7 +5403,7 @@
       <c r="E236" s="19"/>
       <c r="F236" s="16"/>
     </row>
-    <row r="237" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="18"/>
       <c r="B237" s="18"/>
       <c r="C237" s="18"/>
@@ -5408,7 +5411,7 @@
       <c r="E237" s="19"/>
       <c r="F237" s="16"/>
     </row>
-    <row r="238" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="18"/>
       <c r="B238" s="18"/>
       <c r="C238" s="18"/>
@@ -5416,7 +5419,7 @@
       <c r="E238" s="19"/>
       <c r="F238" s="16"/>
     </row>
-    <row r="239" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="18"/>
       <c r="B239" s="18"/>
       <c r="C239" s="18"/>
@@ -5424,7 +5427,7 @@
       <c r="E239" s="19"/>
       <c r="F239" s="16"/>
     </row>
-    <row r="240" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="18"/>
       <c r="B240" s="18"/>
       <c r="C240" s="18"/>
@@ -5432,7 +5435,7 @@
       <c r="E240" s="19"/>
       <c r="F240" s="16"/>
     </row>
-    <row r="241" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="18"/>
       <c r="B241" s="18"/>
       <c r="C241" s="18"/>
@@ -5440,7 +5443,7 @@
       <c r="E241" s="19"/>
       <c r="F241" s="16"/>
     </row>
-    <row r="242" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="18"/>
       <c r="B242" s="18"/>
       <c r="C242" s="18"/>
@@ -5448,7 +5451,7 @@
       <c r="E242" s="19"/>
       <c r="F242" s="16"/>
     </row>
-    <row r="243" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="18"/>
       <c r="B243" s="18"/>
       <c r="C243" s="18"/>
@@ -5456,7 +5459,7 @@
       <c r="E243" s="19"/>
       <c r="F243" s="16"/>
     </row>
-    <row r="244" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="18"/>
       <c r="B244" s="18"/>
       <c r="C244" s="18"/>
@@ -5464,7 +5467,7 @@
       <c r="E244" s="19"/>
       <c r="F244" s="16"/>
     </row>
-    <row r="245" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="18"/>
       <c r="B245" s="18"/>
       <c r="C245" s="18"/>
@@ -5472,7 +5475,7 @@
       <c r="E245" s="19"/>
       <c r="F245" s="16"/>
     </row>
-    <row r="246" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="18"/>
       <c r="B246" s="18"/>
       <c r="C246" s="18"/>
@@ -5480,7 +5483,7 @@
       <c r="E246" s="19"/>
       <c r="F246" s="16"/>
     </row>
-    <row r="247" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="18"/>
       <c r="B247" s="18"/>
       <c r="C247" s="18"/>
@@ -5488,7 +5491,7 @@
       <c r="E247" s="19"/>
       <c r="F247" s="16"/>
     </row>
-    <row r="248" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="18"/>
       <c r="B248" s="18"/>
       <c r="C248" s="18"/>
@@ -5496,7 +5499,7 @@
       <c r="E248" s="19"/>
       <c r="F248" s="16"/>
     </row>
-    <row r="249" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="18"/>
       <c r="B249" s="18"/>
       <c r="C249" s="18"/>
@@ -5504,7 +5507,7 @@
       <c r="E249" s="19"/>
       <c r="F249" s="16"/>
     </row>
-    <row r="250" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="18"/>
       <c r="B250" s="18"/>
       <c r="C250" s="18"/>
@@ -5512,7 +5515,7 @@
       <c r="E250" s="19"/>
       <c r="F250" s="16"/>
     </row>
-    <row r="251" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="18"/>
       <c r="B251" s="18"/>
       <c r="C251" s="18"/>
@@ -5520,7 +5523,7 @@
       <c r="E251" s="19"/>
       <c r="F251" s="16"/>
     </row>
-    <row r="252" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="18"/>
       <c r="B252" s="18"/>
       <c r="C252" s="18"/>
@@ -5528,7 +5531,7 @@
       <c r="E252" s="19"/>
       <c r="F252" s="16"/>
     </row>
-    <row r="253" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="18"/>
       <c r="B253" s="18"/>
       <c r="C253" s="18"/>
@@ -5536,7 +5539,7 @@
       <c r="E253" s="19"/>
       <c r="F253" s="16"/>
     </row>
-    <row r="254" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="18"/>
       <c r="B254" s="18"/>
       <c r="C254" s="18"/>
@@ -5544,7 +5547,7 @@
       <c r="E254" s="19"/>
       <c r="F254" s="16"/>
     </row>
-    <row r="255" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="18"/>
       <c r="B255" s="18"/>
       <c r="C255" s="18"/>
@@ -5552,7 +5555,7 @@
       <c r="E255" s="19"/>
       <c r="F255" s="16"/>
     </row>
-    <row r="256" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="18"/>
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
@@ -5560,7 +5563,7 @@
       <c r="E256" s="19"/>
       <c r="F256" s="16"/>
     </row>
-    <row r="257" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="18"/>
       <c r="B257" s="18"/>
       <c r="C257" s="18"/>
@@ -5568,7 +5571,7 @@
       <c r="E257" s="19"/>
       <c r="F257" s="16"/>
     </row>
-    <row r="258" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="18"/>
       <c r="B258" s="18"/>
       <c r="C258" s="18"/>
@@ -5576,7 +5579,7 @@
       <c r="E258" s="19"/>
       <c r="F258" s="16"/>
     </row>
-    <row r="259" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="18"/>
       <c r="B259" s="18"/>
       <c r="C259" s="18"/>
@@ -5584,7 +5587,7 @@
       <c r="E259" s="19"/>
       <c r="F259" s="16"/>
     </row>
-    <row r="260" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="18"/>
       <c r="B260" s="18"/>
       <c r="C260" s="18"/>
@@ -5592,7 +5595,7 @@
       <c r="E260" s="19"/>
       <c r="F260" s="16"/>
     </row>
-    <row r="261" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="18"/>
       <c r="B261" s="18"/>
       <c r="C261" s="18"/>
@@ -5600,7 +5603,7 @@
       <c r="E261" s="19"/>
       <c r="F261" s="16"/>
     </row>
-    <row r="262" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="18"/>
       <c r="B262" s="18"/>
       <c r="C262" s="18"/>
@@ -5608,7 +5611,7 @@
       <c r="E262" s="19"/>
       <c r="F262" s="16"/>
     </row>
-    <row r="263" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="18"/>
       <c r="B263" s="18"/>
       <c r="C263" s="18"/>
@@ -5616,7 +5619,7 @@
       <c r="E263" s="19"/>
       <c r="F263" s="16"/>
     </row>
-    <row r="264" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="18"/>
       <c r="B264" s="18"/>
       <c r="C264" s="18"/>
@@ -5624,7 +5627,7 @@
       <c r="E264" s="19"/>
       <c r="F264" s="16"/>
     </row>
-    <row r="265" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="18"/>
       <c r="B265" s="18"/>
       <c r="C265" s="18"/>
@@ -5632,7 +5635,7 @@
       <c r="E265" s="19"/>
       <c r="F265" s="16"/>
     </row>
-    <row r="266" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="18"/>
       <c r="B266" s="18"/>
       <c r="C266" s="18"/>
@@ -5640,7 +5643,7 @@
       <c r="E266" s="19"/>
       <c r="F266" s="16"/>
     </row>
-    <row r="267" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="18"/>
       <c r="B267" s="18"/>
       <c r="C267" s="18"/>
@@ -5648,7 +5651,7 @@
       <c r="E267" s="19"/>
       <c r="F267" s="16"/>
     </row>
-    <row r="268" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="18"/>
       <c r="B268" s="18"/>
       <c r="C268" s="18"/>
@@ -5656,7 +5659,7 @@
       <c r="E268" s="19"/>
       <c r="F268" s="16"/>
     </row>
-    <row r="269" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="18"/>
       <c r="B269" s="18"/>
       <c r="C269" s="18"/>
@@ -5664,7 +5667,7 @@
       <c r="E269" s="19"/>
       <c r="F269" s="16"/>
     </row>
-    <row r="270" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="18"/>
       <c r="B270" s="18"/>
       <c r="C270" s="18"/>
@@ -5672,7 +5675,7 @@
       <c r="E270" s="19"/>
       <c r="F270" s="16"/>
     </row>
-    <row r="271" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="18"/>
       <c r="B271" s="18"/>
       <c r="C271" s="18"/>
@@ -5680,7 +5683,7 @@
       <c r="E271" s="19"/>
       <c r="F271" s="16"/>
     </row>
-    <row r="272" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="18"/>
       <c r="B272" s="18"/>
       <c r="C272" s="18"/>
@@ -5688,7 +5691,7 @@
       <c r="E272" s="19"/>
       <c r="F272" s="16"/>
     </row>
-    <row r="273" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="18"/>
       <c r="B273" s="18"/>
       <c r="C273" s="18"/>
@@ -5696,7 +5699,7 @@
       <c r="E273" s="19"/>
       <c r="F273" s="16"/>
     </row>
-    <row r="274" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="18"/>
       <c r="B274" s="18"/>
       <c r="C274" s="18"/>
@@ -5704,7 +5707,7 @@
       <c r="E274" s="19"/>
       <c r="F274" s="16"/>
     </row>
-    <row r="275" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="18"/>
       <c r="B275" s="18"/>
       <c r="C275" s="18"/>
@@ -5712,7 +5715,7 @@
       <c r="E275" s="19"/>
       <c r="F275" s="16"/>
     </row>
-    <row r="276" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="18"/>
       <c r="B276" s="18"/>
       <c r="C276" s="18"/>
@@ -5720,7 +5723,7 @@
       <c r="E276" s="19"/>
       <c r="F276" s="16"/>
     </row>
-    <row r="277" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="18"/>
       <c r="B277" s="18"/>
       <c r="C277" s="18"/>
@@ -5728,7 +5731,7 @@
       <c r="E277" s="19"/>
       <c r="F277" s="16"/>
     </row>
-    <row r="278" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="18"/>
       <c r="B278" s="18"/>
       <c r="C278" s="18"/>
@@ -5736,7 +5739,7 @@
       <c r="E278" s="19"/>
       <c r="F278" s="16"/>
     </row>
-    <row r="279" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="18"/>
       <c r="B279" s="18"/>
       <c r="C279" s="18"/>
@@ -5744,7 +5747,7 @@
       <c r="E279" s="19"/>
       <c r="F279" s="16"/>
     </row>
-    <row r="280" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="18"/>
       <c r="B280" s="18"/>
       <c r="C280" s="18"/>
@@ -5752,7 +5755,7 @@
       <c r="E280" s="19"/>
       <c r="F280" s="16"/>
     </row>
-    <row r="281" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="18"/>
       <c r="B281" s="18"/>
       <c r="C281" s="18"/>
@@ -5760,7 +5763,7 @@
       <c r="E281" s="19"/>
       <c r="F281" s="16"/>
     </row>
-    <row r="282" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="18"/>
       <c r="B282" s="18"/>
       <c r="C282" s="18"/>
@@ -5768,7 +5771,7 @@
       <c r="E282" s="19"/>
       <c r="F282" s="16"/>
     </row>
-    <row r="283" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="18"/>
       <c r="B283" s="18"/>
       <c r="C283" s="18"/>
@@ -5776,7 +5779,7 @@
       <c r="E283" s="19"/>
       <c r="F283" s="16"/>
     </row>
-    <row r="284" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="18"/>
       <c r="B284" s="18"/>
       <c r="C284" s="18"/>
@@ -5784,7 +5787,7 @@
       <c r="E284" s="19"/>
       <c r="F284" s="16"/>
     </row>
-    <row r="285" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="18"/>
       <c r="B285" s="18"/>
       <c r="C285" s="18"/>
@@ -5792,7 +5795,7 @@
       <c r="E285" s="19"/>
       <c r="F285" s="16"/>
     </row>
-    <row r="286" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="18"/>
       <c r="B286" s="18"/>
       <c r="C286" s="18"/>
@@ -5800,7 +5803,7 @@
       <c r="E286" s="19"/>
       <c r="F286" s="16"/>
     </row>
-    <row r="287" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="18"/>
       <c r="B287" s="18"/>
       <c r="C287" s="18"/>
@@ -5808,7 +5811,7 @@
       <c r="E287" s="19"/>
       <c r="F287" s="16"/>
     </row>
-    <row r="288" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="18"/>
       <c r="B288" s="18"/>
       <c r="C288" s="18"/>
@@ -5816,7 +5819,7 @@
       <c r="E288" s="19"/>
       <c r="F288" s="16"/>
     </row>
-    <row r="289" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="18"/>
       <c r="B289" s="18"/>
       <c r="C289" s="18"/>
@@ -5824,7 +5827,7 @@
       <c r="E289" s="19"/>
       <c r="F289" s="16"/>
     </row>
-    <row r="290" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="18"/>
       <c r="B290" s="18"/>
       <c r="C290" s="18"/>
@@ -5832,7 +5835,7 @@
       <c r="E290" s="19"/>
       <c r="F290" s="16"/>
     </row>
-    <row r="291" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="18"/>
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
@@ -5840,7 +5843,7 @@
       <c r="E291" s="19"/>
       <c r="F291" s="16"/>
     </row>
-    <row r="292" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="18"/>
       <c r="B292" s="18"/>
       <c r="C292" s="18"/>
@@ -5848,7 +5851,7 @@
       <c r="E292" s="19"/>
       <c r="F292" s="16"/>
     </row>
-    <row r="293" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="18"/>
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
@@ -5856,7 +5859,7 @@
       <c r="E293" s="19"/>
       <c r="F293" s="16"/>
     </row>
-    <row r="294" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="18"/>
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
@@ -5864,7 +5867,7 @@
       <c r="E294" s="19"/>
       <c r="F294" s="16"/>
     </row>
-    <row r="295" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="18"/>
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
@@ -5872,7 +5875,7 @@
       <c r="E295" s="19"/>
       <c r="F295" s="16"/>
     </row>
-    <row r="296" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="18"/>
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
@@ -5880,7 +5883,7 @@
       <c r="E296" s="19"/>
       <c r="F296" s="16"/>
     </row>
-    <row r="297" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="18"/>
       <c r="B297" s="18"/>
       <c r="C297" s="18"/>
@@ -5888,7 +5891,7 @@
       <c r="E297" s="19"/>
       <c r="F297" s="16"/>
     </row>
-    <row r="298" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="18"/>
       <c r="B298" s="18"/>
       <c r="C298" s="18"/>
@@ -5896,7 +5899,7 @@
       <c r="E298" s="19"/>
       <c r="F298" s="16"/>
     </row>
-    <row r="299" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="18"/>
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
@@ -5904,7 +5907,7 @@
       <c r="E299" s="19"/>
       <c r="F299" s="16"/>
     </row>
-    <row r="300" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="18"/>
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
@@ -5912,7 +5915,7 @@
       <c r="E300" s="19"/>
       <c r="F300" s="16"/>
     </row>
-    <row r="301" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="18"/>
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
@@ -5920,7 +5923,7 @@
       <c r="E301" s="19"/>
       <c r="F301" s="16"/>
     </row>
-    <row r="302" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="18"/>
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
@@ -5928,7 +5931,7 @@
       <c r="E302" s="19"/>
       <c r="F302" s="16"/>
     </row>
-    <row r="303" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="18"/>
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
@@ -5936,7 +5939,7 @@
       <c r="E303" s="19"/>
       <c r="F303" s="16"/>
     </row>
-    <row r="304" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="18"/>
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
@@ -5944,7 +5947,7 @@
       <c r="E304" s="19"/>
       <c r="F304" s="16"/>
     </row>
-    <row r="305" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="18"/>
       <c r="B305" s="18"/>
       <c r="C305" s="18"/>
@@ -5952,7 +5955,7 @@
       <c r="E305" s="19"/>
       <c r="F305" s="16"/>
     </row>
-    <row r="306" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="18"/>
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
@@ -5960,7 +5963,7 @@
       <c r="E306" s="19"/>
       <c r="F306" s="16"/>
     </row>
-    <row r="307" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="18"/>
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
@@ -5968,7 +5971,7 @@
       <c r="E307" s="19"/>
       <c r="F307" s="16"/>
     </row>
-    <row r="308" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="18"/>
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
@@ -5976,7 +5979,7 @@
       <c r="E308" s="19"/>
       <c r="F308" s="16"/>
     </row>
-    <row r="309" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="18"/>
       <c r="B309" s="18"/>
       <c r="C309" s="18"/>
@@ -5984,7 +5987,7 @@
       <c r="E309" s="19"/>
       <c r="F309" s="16"/>
     </row>
-    <row r="310" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="18"/>
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
@@ -5992,7 +5995,7 @@
       <c r="E310" s="19"/>
       <c r="F310" s="16"/>
     </row>
-    <row r="311" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="18"/>
       <c r="B311" s="18"/>
       <c r="C311" s="18"/>
@@ -6000,7 +6003,7 @@
       <c r="E311" s="19"/>
       <c r="F311" s="16"/>
     </row>
-    <row r="312" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="18"/>
       <c r="B312" s="18"/>
       <c r="C312" s="18"/>
@@ -6008,7 +6011,7 @@
       <c r="E312" s="19"/>
       <c r="F312" s="16"/>
     </row>
-    <row r="313" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="18"/>
       <c r="B313" s="18"/>
       <c r="C313" s="18"/>
@@ -6016,7 +6019,7 @@
       <c r="E313" s="19"/>
       <c r="F313" s="16"/>
     </row>
-    <row r="314" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="18"/>
       <c r="B314" s="18"/>
       <c r="C314" s="18"/>
@@ -6024,7 +6027,7 @@
       <c r="E314" s="19"/>
       <c r="F314" s="16"/>
     </row>
-    <row r="315" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="18"/>
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
@@ -6032,7 +6035,7 @@
       <c r="E315" s="19"/>
       <c r="F315" s="16"/>
     </row>
-    <row r="316" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="18"/>
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
@@ -6040,7 +6043,7 @@
       <c r="E316" s="19"/>
       <c r="F316" s="16"/>
     </row>
-    <row r="317" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="18"/>
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
@@ -6048,7 +6051,7 @@
       <c r="E317" s="19"/>
       <c r="F317" s="16"/>
     </row>
-    <row r="318" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="18"/>
       <c r="B318" s="18"/>
       <c r="C318" s="18"/>
@@ -6056,7 +6059,7 @@
       <c r="E318" s="19"/>
       <c r="F318" s="16"/>
     </row>
-    <row r="319" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="18"/>
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
@@ -6064,7 +6067,7 @@
       <c r="E319" s="19"/>
       <c r="F319" s="16"/>
     </row>
-    <row r="320" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="18"/>
       <c r="B320" s="18"/>
       <c r="C320" s="18"/>
@@ -6072,7 +6075,7 @@
       <c r="E320" s="19"/>
       <c r="F320" s="16"/>
     </row>
-    <row r="321" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="18"/>
       <c r="B321" s="18"/>
       <c r="C321" s="18"/>
@@ -6080,7 +6083,7 @@
       <c r="E321" s="19"/>
       <c r="F321" s="16"/>
     </row>
-    <row r="322" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="18"/>
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
@@ -6088,7 +6091,7 @@
       <c r="E322" s="19"/>
       <c r="F322" s="16"/>
     </row>
-    <row r="323" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="18"/>
       <c r="B323" s="18"/>
       <c r="C323" s="18"/>
@@ -6096,7 +6099,7 @@
       <c r="E323" s="19"/>
       <c r="F323" s="16"/>
     </row>
-    <row r="324" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="18"/>
       <c r="B324" s="18"/>
       <c r="C324" s="18"/>
@@ -6104,7 +6107,7 @@
       <c r="E324" s="19"/>
       <c r="F324" s="16"/>
     </row>
-    <row r="325" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="18"/>
       <c r="B325" s="18"/>
       <c r="C325" s="18"/>
@@ -6112,7 +6115,7 @@
       <c r="E325" s="19"/>
       <c r="F325" s="16"/>
     </row>
-    <row r="326" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="18"/>
       <c r="B326" s="18"/>
       <c r="C326" s="18"/>
@@ -6120,7 +6123,7 @@
       <c r="E326" s="19"/>
       <c r="F326" s="16"/>
     </row>
-    <row r="327" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="18"/>
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
@@ -6128,7 +6131,7 @@
       <c r="E327" s="19"/>
       <c r="F327" s="16"/>
     </row>
-    <row r="328" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="18"/>
       <c r="B328" s="18"/>
       <c r="C328" s="18"/>
@@ -6136,7 +6139,7 @@
       <c r="E328" s="19"/>
       <c r="F328" s="16"/>
     </row>
-    <row r="329" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="18"/>
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
@@ -6144,7 +6147,7 @@
       <c r="E329" s="19"/>
       <c r="F329" s="16"/>
     </row>
-    <row r="330" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="18"/>
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
@@ -6152,7 +6155,7 @@
       <c r="E330" s="19"/>
       <c r="F330" s="16"/>
     </row>
-    <row r="331" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="18"/>
       <c r="B331" s="18"/>
       <c r="C331" s="18"/>
@@ -6160,7 +6163,7 @@
       <c r="E331" s="19"/>
       <c r="F331" s="16"/>
     </row>
-    <row r="332" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="18"/>
       <c r="B332" s="18"/>
       <c r="C332" s="18"/>
@@ -6168,7 +6171,7 @@
       <c r="E332" s="19"/>
       <c r="F332" s="16"/>
     </row>
-    <row r="333" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="18"/>
       <c r="B333" s="18"/>
       <c r="C333" s="18"/>
@@ -6176,7 +6179,7 @@
       <c r="E333" s="19"/>
       <c r="F333" s="16"/>
     </row>
-    <row r="334" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="18"/>
       <c r="B334" s="18"/>
       <c r="C334" s="18"/>
@@ -6184,7 +6187,7 @@
       <c r="E334" s="19"/>
       <c r="F334" s="16"/>
     </row>
-    <row r="335" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="18"/>
       <c r="B335" s="18"/>
       <c r="C335" s="18"/>
@@ -6192,7 +6195,7 @@
       <c r="E335" s="19"/>
       <c r="F335" s="16"/>
     </row>
-    <row r="336" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="18"/>
       <c r="B336" s="18"/>
       <c r="C336" s="18"/>
@@ -6200,7 +6203,7 @@
       <c r="E336" s="19"/>
       <c r="F336" s="16"/>
     </row>
-    <row r="337" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="18"/>
       <c r="B337" s="18"/>
       <c r="C337" s="18"/>
@@ -6208,7 +6211,7 @@
       <c r="E337" s="19"/>
       <c r="F337" s="16"/>
     </row>
-    <row r="338" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="18"/>
       <c r="B338" s="18"/>
       <c r="C338" s="18"/>
@@ -6216,7 +6219,7 @@
       <c r="E338" s="19"/>
       <c r="F338" s="16"/>
     </row>
-    <row r="339" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="18"/>
       <c r="B339" s="18"/>
       <c r="C339" s="18"/>
@@ -6224,7 +6227,7 @@
       <c r="E339" s="19"/>
       <c r="F339" s="16"/>
     </row>
-    <row r="340" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="18"/>
       <c r="B340" s="18"/>
       <c r="C340" s="18"/>
@@ -6232,7 +6235,7 @@
       <c r="E340" s="19"/>
       <c r="F340" s="16"/>
     </row>
-    <row r="341" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="18"/>
       <c r="B341" s="18"/>
       <c r="C341" s="18"/>
@@ -6240,7 +6243,7 @@
       <c r="E341" s="19"/>
       <c r="F341" s="16"/>
     </row>
-    <row r="342" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="18"/>
       <c r="B342" s="18"/>
       <c r="C342" s="18"/>
@@ -6248,7 +6251,7 @@
       <c r="E342" s="19"/>
       <c r="F342" s="16"/>
     </row>
-    <row r="343" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="18"/>
       <c r="B343" s="18"/>
       <c r="C343" s="18"/>
@@ -6256,7 +6259,7 @@
       <c r="E343" s="19"/>
       <c r="F343" s="16"/>
     </row>
-    <row r="344" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="18"/>
       <c r="B344" s="18"/>
       <c r="C344" s="18"/>
@@ -6264,7 +6267,7 @@
       <c r="E344" s="19"/>
       <c r="F344" s="16"/>
     </row>
-    <row r="345" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="18"/>
       <c r="B345" s="18"/>
       <c r="C345" s="18"/>
@@ -6272,7 +6275,7 @@
       <c r="E345" s="19"/>
       <c r="F345" s="16"/>
     </row>
-    <row r="346" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="18"/>
       <c r="B346" s="18"/>
       <c r="C346" s="18"/>
@@ -6280,7 +6283,7 @@
       <c r="E346" s="19"/>
       <c r="F346" s="16"/>
     </row>
-    <row r="347" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="18"/>
       <c r="B347" s="18"/>
       <c r="C347" s="18"/>
@@ -6288,7 +6291,7 @@
       <c r="E347" s="19"/>
       <c r="F347" s="16"/>
     </row>
-    <row r="348" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="18"/>
       <c r="B348" s="18"/>
       <c r="C348" s="18"/>
@@ -6296,7 +6299,7 @@
       <c r="E348" s="19"/>
       <c r="F348" s="16"/>
     </row>
-    <row r="349" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="18"/>
       <c r="B349" s="18"/>
       <c r="C349" s="18"/>
@@ -6304,7 +6307,7 @@
       <c r="E349" s="19"/>
       <c r="F349" s="16"/>
     </row>
-    <row r="350" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="18"/>
       <c r="B350" s="18"/>
       <c r="C350" s="18"/>
@@ -6312,7 +6315,7 @@
       <c r="E350" s="19"/>
       <c r="F350" s="16"/>
     </row>
-    <row r="351" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="18"/>
       <c r="B351" s="18"/>
       <c r="C351" s="18"/>
@@ -6320,7 +6323,7 @@
       <c r="E351" s="19"/>
       <c r="F351" s="16"/>
     </row>
-    <row r="352" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="18"/>
       <c r="B352" s="18"/>
       <c r="C352" s="18"/>
@@ -6328,7 +6331,7 @@
       <c r="E352" s="19"/>
       <c r="F352" s="16"/>
     </row>
-    <row r="353" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="18"/>
       <c r="B353" s="18"/>
       <c r="C353" s="18"/>
@@ -6336,7 +6339,7 @@
       <c r="E353" s="19"/>
       <c r="F353" s="16"/>
     </row>
-    <row r="354" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="18"/>
       <c r="B354" s="18"/>
       <c r="C354" s="18"/>
@@ -6344,7 +6347,7 @@
       <c r="E354" s="19"/>
       <c r="F354" s="16"/>
     </row>
-    <row r="355" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="18"/>
       <c r="B355" s="18"/>
       <c r="C355" s="18"/>
@@ -6352,7 +6355,7 @@
       <c r="E355" s="19"/>
       <c r="F355" s="16"/>
     </row>
-    <row r="356" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="18"/>
       <c r="B356" s="18"/>
       <c r="C356" s="18"/>
@@ -6360,7 +6363,7 @@
       <c r="E356" s="19"/>
       <c r="F356" s="16"/>
     </row>
-    <row r="357" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="18"/>
       <c r="B357" s="18"/>
       <c r="C357" s="18"/>
@@ -6368,7 +6371,7 @@
       <c r="E357" s="19"/>
       <c r="F357" s="16"/>
     </row>
-    <row r="358" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="18"/>
       <c r="B358" s="18"/>
       <c r="C358" s="18"/>
@@ -6376,7 +6379,7 @@
       <c r="E358" s="19"/>
       <c r="F358" s="16"/>
     </row>
-    <row r="359" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="18"/>
       <c r="B359" s="18"/>
       <c r="C359" s="18"/>
@@ -6384,7 +6387,7 @@
       <c r="E359" s="19"/>
       <c r="F359" s="16"/>
     </row>
-    <row r="360" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="18"/>
       <c r="B360" s="18"/>
       <c r="C360" s="18"/>
@@ -6392,7 +6395,7 @@
       <c r="E360" s="19"/>
       <c r="F360" s="16"/>
     </row>
-    <row r="361" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="18"/>
       <c r="B361" s="18"/>
       <c r="C361" s="18"/>
@@ -6400,7 +6403,7 @@
       <c r="E361" s="19"/>
       <c r="F361" s="16"/>
     </row>
-    <row r="362" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="18"/>
       <c r="B362" s="18"/>
       <c r="C362" s="18"/>
@@ -6408,7 +6411,7 @@
       <c r="E362" s="19"/>
       <c r="F362" s="16"/>
     </row>
-    <row r="363" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="18"/>
       <c r="B363" s="18"/>
       <c r="C363" s="18"/>
@@ -6416,7 +6419,7 @@
       <c r="E363" s="19"/>
       <c r="F363" s="16"/>
     </row>
-    <row r="364" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="18"/>
       <c r="B364" s="18"/>
       <c r="C364" s="18"/>
@@ -6424,7 +6427,7 @@
       <c r="E364" s="19"/>
       <c r="F364" s="16"/>
     </row>
-    <row r="365" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="18"/>
       <c r="B365" s="18"/>
       <c r="C365" s="18"/>
@@ -6432,7 +6435,7 @@
       <c r="E365" s="19"/>
       <c r="F365" s="16"/>
     </row>
-    <row r="366" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="18"/>
       <c r="B366" s="18"/>
       <c r="C366" s="18"/>
@@ -6440,7 +6443,7 @@
       <c r="E366" s="19"/>
       <c r="F366" s="16"/>
     </row>
-    <row r="367" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="18"/>
       <c r="B367" s="18"/>
       <c r="C367" s="18"/>
@@ -6448,7 +6451,7 @@
       <c r="E367" s="19"/>
       <c r="F367" s="16"/>
     </row>
-    <row r="368" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="18"/>
       <c r="B368" s="18"/>
       <c r="C368" s="18"/>
@@ -6456,7 +6459,7 @@
       <c r="E368" s="19"/>
       <c r="F368" s="16"/>
     </row>
-    <row r="369" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="18"/>
       <c r="B369" s="18"/>
       <c r="C369" s="18"/>
@@ -6464,7 +6467,7 @@
       <c r="E369" s="19"/>
       <c r="F369" s="16"/>
     </row>
-    <row r="370" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="18"/>
       <c r="B370" s="18"/>
       <c r="C370" s="18"/>
@@ -6472,7 +6475,7 @@
       <c r="E370" s="19"/>
       <c r="F370" s="16"/>
     </row>
-    <row r="371" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="18"/>
       <c r="B371" s="18"/>
       <c r="C371" s="18"/>
@@ -6480,7 +6483,7 @@
       <c r="E371" s="19"/>
       <c r="F371" s="16"/>
     </row>
-    <row r="372" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="18"/>
       <c r="B372" s="18"/>
       <c r="C372" s="18"/>
@@ -6488,7 +6491,7 @@
       <c r="E372" s="19"/>
       <c r="F372" s="16"/>
     </row>
-    <row r="373" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="18"/>
       <c r="B373" s="18"/>
       <c r="C373" s="18"/>
@@ -6496,7 +6499,7 @@
       <c r="E373" s="19"/>
       <c r="F373" s="16"/>
     </row>
-    <row r="374" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="18"/>
       <c r="B374" s="18"/>
       <c r="C374" s="18"/>
@@ -6504,7 +6507,7 @@
       <c r="E374" s="19"/>
       <c r="F374" s="16"/>
     </row>
-    <row r="375" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="18"/>
       <c r="B375" s="18"/>
       <c r="C375" s="18"/>
@@ -6512,7 +6515,7 @@
       <c r="E375" s="19"/>
       <c r="F375" s="16"/>
     </row>
-    <row r="376" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="18"/>
       <c r="B376" s="18"/>
       <c r="C376" s="18"/>
@@ -6520,7 +6523,7 @@
       <c r="E376" s="19"/>
       <c r="F376" s="16"/>
     </row>
-    <row r="377" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="18"/>
       <c r="B377" s="18"/>
       <c r="C377" s="18"/>
@@ -6528,7 +6531,7 @@
       <c r="E377" s="19"/>
       <c r="F377" s="16"/>
     </row>
-    <row r="378" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="18"/>
       <c r="B378" s="18"/>
       <c r="C378" s="18"/>
@@ -6536,7 +6539,7 @@
       <c r="E378" s="19"/>
       <c r="F378" s="16"/>
     </row>
-    <row r="379" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="18"/>
       <c r="B379" s="18"/>
       <c r="C379" s="18"/>
@@ -6544,7 +6547,7 @@
       <c r="E379" s="19"/>
       <c r="F379" s="16"/>
     </row>
-    <row r="380" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="18"/>
       <c r="B380" s="18"/>
       <c r="C380" s="18"/>
@@ -6552,7 +6555,7 @@
       <c r="E380" s="19"/>
       <c r="F380" s="16"/>
     </row>
-    <row r="381" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="18"/>
       <c r="B381" s="18"/>
       <c r="C381" s="18"/>
@@ -6560,7 +6563,7 @@
       <c r="E381" s="19"/>
       <c r="F381" s="16"/>
     </row>
-    <row r="382" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="18"/>
       <c r="B382" s="18"/>
       <c r="C382" s="18"/>
@@ -6568,7 +6571,7 @@
       <c r="E382" s="19"/>
       <c r="F382" s="16"/>
     </row>
-    <row r="383" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="18"/>
       <c r="B383" s="18"/>
       <c r="C383" s="18"/>
@@ -6576,7 +6579,7 @@
       <c r="E383" s="19"/>
       <c r="F383" s="16"/>
     </row>
-    <row r="384" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="18"/>
       <c r="B384" s="18"/>
       <c r="C384" s="18"/>
@@ -6584,7 +6587,7 @@
       <c r="E384" s="19"/>
       <c r="F384" s="16"/>
     </row>
-    <row r="385" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="18"/>
       <c r="B385" s="18"/>
       <c r="C385" s="18"/>
@@ -6592,7 +6595,7 @@
       <c r="E385" s="19"/>
       <c r="F385" s="16"/>
     </row>
-    <row r="386" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="18"/>
       <c r="B386" s="18"/>
       <c r="C386" s="18"/>
@@ -6600,7 +6603,7 @@
       <c r="E386" s="19"/>
       <c r="F386" s="16"/>
     </row>
-    <row r="387" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="18"/>
       <c r="B387" s="18"/>
       <c r="C387" s="18"/>
@@ -6608,7 +6611,7 @@
       <c r="E387" s="19"/>
       <c r="F387" s="16"/>
     </row>
-    <row r="388" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="18"/>
       <c r="B388" s="18"/>
       <c r="C388" s="18"/>
@@ -6616,7 +6619,7 @@
       <c r="E388" s="19"/>
       <c r="F388" s="16"/>
     </row>
-    <row r="389" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="18"/>
       <c r="B389" s="18"/>
       <c r="C389" s="18"/>
@@ -6624,7 +6627,7 @@
       <c r="E389" s="19"/>
       <c r="F389" s="16"/>
     </row>
-    <row r="390" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="18"/>
       <c r="B390" s="18"/>
       <c r="C390" s="18"/>
@@ -6632,7 +6635,7 @@
       <c r="E390" s="19"/>
       <c r="F390" s="16"/>
     </row>
-    <row r="391" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="18"/>
       <c r="B391" s="18"/>
       <c r="C391" s="18"/>
@@ -6640,7 +6643,7 @@
       <c r="E391" s="19"/>
       <c r="F391" s="16"/>
     </row>
-    <row r="392" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="18"/>
       <c r="B392" s="18"/>
       <c r="C392" s="18"/>
@@ -6648,7 +6651,7 @@
       <c r="E392" s="19"/>
       <c r="F392" s="16"/>
     </row>
-    <row r="393" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="18"/>
       <c r="B393" s="18"/>
       <c r="C393" s="18"/>
@@ -6656,7 +6659,7 @@
       <c r="E393" s="19"/>
       <c r="F393" s="16"/>
     </row>
-    <row r="394" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="18"/>
       <c r="B394" s="18"/>
       <c r="C394" s="18"/>
@@ -6664,7 +6667,7 @@
       <c r="E394" s="19"/>
       <c r="F394" s="16"/>
     </row>
-    <row r="395" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="18"/>
       <c r="B395" s="18"/>
       <c r="C395" s="18"/>
@@ -6672,7 +6675,7 @@
       <c r="E395" s="19"/>
       <c r="F395" s="16"/>
     </row>
-    <row r="396" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="18"/>
       <c r="B396" s="18"/>
       <c r="C396" s="18"/>
@@ -6680,7 +6683,7 @@
       <c r="E396" s="19"/>
       <c r="F396" s="16"/>
     </row>
-    <row r="397" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="18"/>
       <c r="B397" s="18"/>
       <c r="C397" s="18"/>
@@ -6688,7 +6691,7 @@
       <c r="E397" s="19"/>
       <c r="F397" s="16"/>
     </row>
-    <row r="398" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="18"/>
       <c r="B398" s="18"/>
       <c r="C398" s="18"/>
@@ -6696,7 +6699,7 @@
       <c r="E398" s="19"/>
       <c r="F398" s="16"/>
     </row>
-    <row r="399" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="18"/>
       <c r="B399" s="18"/>
       <c r="C399" s="18"/>
@@ -6704,7 +6707,7 @@
       <c r="E399" s="19"/>
       <c r="F399" s="16"/>
     </row>
-    <row r="400" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="18"/>
       <c r="B400" s="18"/>
       <c r="C400" s="18"/>
@@ -6712,7 +6715,7 @@
       <c r="E400" s="19"/>
       <c r="F400" s="16"/>
     </row>
-    <row r="401" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="18"/>
       <c r="B401" s="18"/>
       <c r="C401" s="18"/>
@@ -6720,7 +6723,7 @@
       <c r="E401" s="19"/>
       <c r="F401" s="16"/>
     </row>
-    <row r="402" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="18"/>
       <c r="B402" s="18"/>
       <c r="C402" s="18"/>
@@ -6728,7 +6731,7 @@
       <c r="E402" s="19"/>
       <c r="F402" s="16"/>
     </row>
-    <row r="403" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="18"/>
       <c r="B403" s="18"/>
       <c r="C403" s="18"/>
@@ -6736,7 +6739,7 @@
       <c r="E403" s="19"/>
       <c r="F403" s="16"/>
     </row>
-    <row r="404" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="18"/>
       <c r="B404" s="18"/>
       <c r="C404" s="18"/>
@@ -6744,7 +6747,7 @@
       <c r="E404" s="19"/>
       <c r="F404" s="16"/>
     </row>
-    <row r="405" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="18"/>
       <c r="B405" s="18"/>
       <c r="C405" s="18"/>
@@ -6752,7 +6755,7 @@
       <c r="E405" s="19"/>
       <c r="F405" s="16"/>
     </row>
-    <row r="406" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="18"/>
       <c r="B406" s="18"/>
       <c r="C406" s="18"/>
@@ -6760,7 +6763,7 @@
       <c r="E406" s="19"/>
       <c r="F406" s="16"/>
     </row>
-    <row r="407" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="18"/>
       <c r="B407" s="18"/>
       <c r="C407" s="18"/>
@@ -6768,7 +6771,7 @@
       <c r="E407" s="19"/>
       <c r="F407" s="16"/>
     </row>
-    <row r="408" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="18"/>
       <c r="B408" s="18"/>
       <c r="C408" s="18"/>
@@ -6776,7 +6779,7 @@
       <c r="E408" s="19"/>
       <c r="F408" s="16"/>
     </row>
-    <row r="409" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="18"/>
       <c r="B409" s="18"/>
       <c r="C409" s="18"/>
@@ -6784,7 +6787,7 @@
       <c r="E409" s="19"/>
       <c r="F409" s="16"/>
     </row>
-    <row r="410" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="18"/>
       <c r="B410" s="18"/>
       <c r="C410" s="18"/>
@@ -6792,7 +6795,7 @@
       <c r="E410" s="19"/>
       <c r="F410" s="16"/>
     </row>
-    <row r="411" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="18"/>
       <c r="B411" s="18"/>
       <c r="C411" s="18"/>
@@ -6800,7 +6803,7 @@
       <c r="E411" s="19"/>
       <c r="F411" s="16"/>
     </row>
-    <row r="412" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="18"/>
       <c r="B412" s="18"/>
       <c r="C412" s="18"/>
@@ -6808,7 +6811,7 @@
       <c r="E412" s="19"/>
       <c r="F412" s="16"/>
     </row>
-    <row r="413" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="18"/>
       <c r="B413" s="18"/>
       <c r="C413" s="18"/>
@@ -6816,7 +6819,7 @@
       <c r="E413" s="19"/>
       <c r="F413" s="16"/>
     </row>
-    <row r="414" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="18"/>
       <c r="B414" s="18"/>
       <c r="C414" s="18"/>
@@ -6824,7 +6827,7 @@
       <c r="E414" s="19"/>
       <c r="F414" s="16"/>
     </row>
-    <row r="415" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="18"/>
       <c r="B415" s="18"/>
       <c r="C415" s="18"/>
@@ -6832,7 +6835,7 @@
       <c r="E415" s="19"/>
       <c r="F415" s="16"/>
     </row>
-    <row r="416" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="18"/>
       <c r="B416" s="18"/>
       <c r="C416" s="18"/>
@@ -6840,7 +6843,7 @@
       <c r="E416" s="19"/>
       <c r="F416" s="16"/>
     </row>
-    <row r="417" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="18"/>
       <c r="B417" s="18"/>
       <c r="C417" s="18"/>
@@ -6848,7 +6851,7 @@
       <c r="E417" s="19"/>
       <c r="F417" s="16"/>
     </row>
-    <row r="418" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="18"/>
       <c r="B418" s="18"/>
       <c r="C418" s="18"/>
@@ -6856,7 +6859,7 @@
       <c r="E418" s="19"/>
       <c r="F418" s="16"/>
     </row>
-    <row r="419" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="18"/>
       <c r="B419" s="18"/>
       <c r="C419" s="18"/>
@@ -6864,7 +6867,7 @@
       <c r="E419" s="19"/>
       <c r="F419" s="16"/>
     </row>
-    <row r="420" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="18"/>
       <c r="B420" s="18"/>
       <c r="C420" s="18"/>
@@ -6872,7 +6875,7 @@
       <c r="E420" s="19"/>
       <c r="F420" s="16"/>
     </row>
-    <row r="421" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="18"/>
       <c r="B421" s="18"/>
       <c r="C421" s="18"/>
@@ -6880,7 +6883,7 @@
       <c r="E421" s="19"/>
       <c r="F421" s="16"/>
     </row>
-    <row r="422" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="18"/>
       <c r="B422" s="18"/>
       <c r="C422" s="18"/>
@@ -6888,7 +6891,7 @@
       <c r="E422" s="19"/>
       <c r="F422" s="16"/>
     </row>
-    <row r="423" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="18"/>
       <c r="B423" s="18"/>
       <c r="C423" s="18"/>
@@ -6896,7 +6899,7 @@
       <c r="E423" s="19"/>
       <c r="F423" s="16"/>
     </row>
-    <row r="424" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="18"/>
       <c r="B424" s="18"/>
       <c r="C424" s="18"/>
@@ -6904,7 +6907,7 @@
       <c r="E424" s="19"/>
       <c r="F424" s="16"/>
     </row>
-    <row r="425" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="18"/>
       <c r="B425" s="18"/>
       <c r="C425" s="18"/>
@@ -6912,7 +6915,7 @@
       <c r="E425" s="19"/>
       <c r="F425" s="16"/>
     </row>
-    <row r="426" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="18"/>
       <c r="B426" s="18"/>
       <c r="C426" s="18"/>
@@ -6920,7 +6923,7 @@
       <c r="E426" s="19"/>
       <c r="F426" s="16"/>
     </row>
-    <row r="427" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="18"/>
       <c r="B427" s="18"/>
       <c r="C427" s="18"/>
@@ -6928,7 +6931,7 @@
       <c r="E427" s="19"/>
       <c r="F427" s="16"/>
     </row>
-    <row r="428" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="18"/>
       <c r="B428" s="18"/>
       <c r="C428" s="18"/>
@@ -6936,7 +6939,7 @@
       <c r="E428" s="19"/>
       <c r="F428" s="16"/>
     </row>
-    <row r="429" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="18"/>
       <c r="B429" s="18"/>
       <c r="C429" s="18"/>
@@ -6944,7 +6947,7 @@
       <c r="E429" s="19"/>
       <c r="F429" s="16"/>
     </row>
-    <row r="430" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="18"/>
       <c r="B430" s="18"/>
       <c r="C430" s="18"/>
@@ -6952,7 +6955,7 @@
       <c r="E430" s="19"/>
       <c r="F430" s="16"/>
     </row>
-    <row r="431" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="18"/>
       <c r="B431" s="18"/>
       <c r="C431" s="18"/>
@@ -6960,7 +6963,7 @@
       <c r="E431" s="19"/>
       <c r="F431" s="16"/>
     </row>
-    <row r="432" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="18"/>
       <c r="B432" s="18"/>
       <c r="C432" s="18"/>
@@ -6968,7 +6971,7 @@
       <c r="E432" s="19"/>
       <c r="F432" s="16"/>
     </row>
-    <row r="433" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="18"/>
       <c r="B433" s="18"/>
       <c r="C433" s="18"/>
@@ -6976,7 +6979,7 @@
       <c r="E433" s="19"/>
       <c r="F433" s="16"/>
     </row>
-    <row r="434" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="18"/>
       <c r="B434" s="18"/>
       <c r="C434" s="18"/>
@@ -6984,7 +6987,7 @@
       <c r="E434" s="19"/>
       <c r="F434" s="16"/>
     </row>
-    <row r="435" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="18"/>
       <c r="B435" s="18"/>
       <c r="C435" s="18"/>
@@ -6992,7 +6995,7 @@
       <c r="E435" s="19"/>
       <c r="F435" s="16"/>
     </row>
-    <row r="436" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="18"/>
       <c r="B436" s="18"/>
       <c r="C436" s="18"/>
@@ -7000,7 +7003,7 @@
       <c r="E436" s="19"/>
       <c r="F436" s="16"/>
     </row>
-    <row r="437" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="18"/>
       <c r="B437" s="18"/>
       <c r="C437" s="18"/>
@@ -7008,7 +7011,7 @@
       <c r="E437" s="19"/>
       <c r="F437" s="16"/>
     </row>
-    <row r="438" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="18"/>
       <c r="B438" s="18"/>
       <c r="C438" s="18"/>
@@ -7016,7 +7019,7 @@
       <c r="E438" s="19"/>
       <c r="F438" s="16"/>
     </row>
-    <row r="439" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="18"/>
       <c r="B439" s="18"/>
       <c r="C439" s="18"/>
@@ -7024,7 +7027,7 @@
       <c r="E439" s="19"/>
       <c r="F439" s="16"/>
     </row>
-    <row r="440" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="18"/>
       <c r="B440" s="18"/>
       <c r="C440" s="18"/>
@@ -7032,7 +7035,7 @@
       <c r="E440" s="19"/>
       <c r="F440" s="16"/>
     </row>
-    <row r="441" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="18"/>
       <c r="B441" s="18"/>
       <c r="C441" s="18"/>
@@ -7040,7 +7043,7 @@
       <c r="E441" s="19"/>
       <c r="F441" s="16"/>
     </row>
-    <row r="442" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="18"/>
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
@@ -7048,7 +7051,7 @@
       <c r="E442" s="19"/>
       <c r="F442" s="16"/>
     </row>
-    <row r="443" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="18"/>
       <c r="B443" s="18"/>
       <c r="C443" s="18"/>
@@ -7056,7 +7059,7 @@
       <c r="E443" s="19"/>
       <c r="F443" s="16"/>
     </row>
-    <row r="444" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="18"/>
       <c r="B444" s="18"/>
       <c r="C444" s="18"/>
@@ -7064,7 +7067,7 @@
       <c r="E444" s="19"/>
       <c r="F444" s="16"/>
     </row>
-    <row r="445" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="18"/>
       <c r="B445" s="18"/>
       <c r="C445" s="18"/>
@@ -7072,7 +7075,7 @@
       <c r="E445" s="19"/>
       <c r="F445" s="16"/>
     </row>
-    <row r="446" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="18"/>
       <c r="B446" s="18"/>
       <c r="C446" s="18"/>
@@ -7080,7 +7083,7 @@
       <c r="E446" s="19"/>
       <c r="F446" s="16"/>
     </row>
-    <row r="447" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="18"/>
       <c r="B447" s="18"/>
       <c r="C447" s="18"/>
@@ -7088,7 +7091,7 @@
       <c r="E447" s="19"/>
       <c r="F447" s="16"/>
     </row>
-    <row r="448" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="18"/>
       <c r="B448" s="18"/>
       <c r="C448" s="18"/>
@@ -7096,7 +7099,7 @@
       <c r="E448" s="19"/>
       <c r="F448" s="16"/>
     </row>
-    <row r="449" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="18"/>
       <c r="B449" s="18"/>
       <c r="C449" s="18"/>
@@ -7104,7 +7107,7 @@
       <c r="E449" s="19"/>
       <c r="F449" s="16"/>
     </row>
-    <row r="450" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="18"/>
       <c r="B450" s="18"/>
       <c r="C450" s="18"/>
@@ -7112,7 +7115,7 @@
       <c r="E450" s="19"/>
       <c r="F450" s="16"/>
     </row>
-    <row r="451" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="18"/>
       <c r="B451" s="18"/>
       <c r="C451" s="18"/>
@@ -7120,7 +7123,7 @@
       <c r="E451" s="19"/>
       <c r="F451" s="16"/>
     </row>
-    <row r="452" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="18"/>
       <c r="B452" s="18"/>
       <c r="C452" s="18"/>
@@ -7128,7 +7131,7 @@
       <c r="E452" s="19"/>
       <c r="F452" s="16"/>
     </row>
-    <row r="453" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="18"/>
       <c r="B453" s="18"/>
       <c r="C453" s="18"/>
@@ -7136,7 +7139,7 @@
       <c r="E453" s="19"/>
       <c r="F453" s="16"/>
     </row>
-    <row r="454" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="18"/>
       <c r="B454" s="18"/>
       <c r="C454" s="18"/>
@@ -7144,7 +7147,7 @@
       <c r="E454" s="19"/>
       <c r="F454" s="16"/>
     </row>
-    <row r="455" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="18"/>
       <c r="B455" s="18"/>
       <c r="C455" s="18"/>
@@ -7152,7 +7155,7 @@
       <c r="E455" s="19"/>
       <c r="F455" s="16"/>
     </row>
-    <row r="456" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="18"/>
       <c r="B456" s="18"/>
       <c r="C456" s="18"/>
@@ -7160,7 +7163,7 @@
       <c r="E456" s="19"/>
       <c r="F456" s="16"/>
     </row>
-    <row r="457" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="18"/>
       <c r="B457" s="18"/>
       <c r="C457" s="18"/>
@@ -7168,7 +7171,7 @@
       <c r="E457" s="19"/>
       <c r="F457" s="16"/>
     </row>
-    <row r="458" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="18"/>
       <c r="B458" s="18"/>
       <c r="C458" s="18"/>
@@ -7176,7 +7179,7 @@
       <c r="E458" s="19"/>
       <c r="F458" s="16"/>
     </row>
-    <row r="459" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="18"/>
       <c r="B459" s="18"/>
       <c r="C459" s="18"/>
@@ -7184,7 +7187,7 @@
       <c r="E459" s="19"/>
       <c r="F459" s="16"/>
     </row>
-    <row r="460" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="18"/>
       <c r="B460" s="18"/>
       <c r="C460" s="18"/>
@@ -7192,7 +7195,7 @@
       <c r="E460" s="19"/>
       <c r="F460" s="16"/>
     </row>
-    <row r="461" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="18"/>
       <c r="B461" s="18"/>
       <c r="C461" s="18"/>
@@ -7200,7 +7203,7 @@
       <c r="E461" s="19"/>
       <c r="F461" s="16"/>
     </row>
-    <row r="462" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="18"/>
       <c r="B462" s="18"/>
       <c r="C462" s="18"/>
@@ -7208,7 +7211,7 @@
       <c r="E462" s="19"/>
       <c r="F462" s="16"/>
     </row>
-    <row r="463" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="18"/>
       <c r="B463" s="18"/>
       <c r="C463" s="18"/>
@@ -7216,7 +7219,7 @@
       <c r="E463" s="19"/>
       <c r="F463" s="16"/>
     </row>
-    <row r="464" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="18"/>
       <c r="B464" s="18"/>
       <c r="C464" s="18"/>
@@ -7224,7 +7227,7 @@
       <c r="E464" s="19"/>
       <c r="F464" s="16"/>
     </row>
-    <row r="465" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="18"/>
       <c r="B465" s="18"/>
       <c r="C465" s="18"/>
@@ -7232,7 +7235,7 @@
       <c r="E465" s="19"/>
       <c r="F465" s="16"/>
     </row>
-    <row r="466" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="18"/>
       <c r="B466" s="18"/>
       <c r="C466" s="18"/>
@@ -7240,7 +7243,7 @@
       <c r="E466" s="19"/>
       <c r="F466" s="16"/>
     </row>
-    <row r="467" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="18"/>
       <c r="B467" s="18"/>
       <c r="C467" s="18"/>
@@ -7248,7 +7251,7 @@
       <c r="E467" s="19"/>
       <c r="F467" s="16"/>
     </row>
-    <row r="468" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="18"/>
       <c r="B468" s="18"/>
       <c r="C468" s="18"/>
@@ -7256,7 +7259,7 @@
       <c r="E468" s="19"/>
       <c r="F468" s="16"/>
     </row>
-    <row r="469" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="18"/>
       <c r="B469" s="18"/>
       <c r="C469" s="18"/>
@@ -7264,7 +7267,7 @@
       <c r="E469" s="19"/>
       <c r="F469" s="16"/>
     </row>
-    <row r="470" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="18"/>
       <c r="B470" s="18"/>
       <c r="C470" s="18"/>
@@ -7272,7 +7275,7 @@
       <c r="E470" s="19"/>
       <c r="F470" s="16"/>
     </row>
-    <row r="471" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="18"/>
       <c r="B471" s="18"/>
       <c r="C471" s="18"/>
@@ -7280,7 +7283,7 @@
       <c r="E471" s="19"/>
       <c r="F471" s="16"/>
     </row>
-    <row r="472" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="18"/>
       <c r="B472" s="18"/>
       <c r="C472" s="18"/>
@@ -7288,7 +7291,7 @@
       <c r="E472" s="19"/>
       <c r="F472" s="16"/>
     </row>
-    <row r="473" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="18"/>
       <c r="B473" s="18"/>
       <c r="C473" s="18"/>
@@ -7296,7 +7299,7 @@
       <c r="E473" s="19"/>
       <c r="F473" s="16"/>
     </row>
-    <row r="474" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="18"/>
       <c r="B474" s="18"/>
       <c r="C474" s="18"/>
@@ -7304,7 +7307,7 @@
       <c r="E474" s="19"/>
       <c r="F474" s="16"/>
     </row>
-    <row r="475" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="18"/>
       <c r="C475" s="18"/>
@@ -7312,7 +7315,7 @@
       <c r="E475" s="19"/>
       <c r="F475" s="16"/>
     </row>
-    <row r="476" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="18"/>
       <c r="B476" s="18"/>
       <c r="C476" s="18"/>
@@ -7320,7 +7323,7 @@
       <c r="E476" s="19"/>
       <c r="F476" s="16"/>
     </row>
-    <row r="477" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="18"/>
       <c r="B477" s="18"/>
       <c r="C477" s="18"/>
@@ -7328,7 +7331,7 @@
       <c r="E477" s="19"/>
       <c r="F477" s="16"/>
     </row>
-    <row r="478" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="18"/>
       <c r="B478" s="18"/>
       <c r="C478" s="18"/>
@@ -7336,7 +7339,7 @@
       <c r="E478" s="19"/>
       <c r="F478" s="16"/>
     </row>
-    <row r="479" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="18"/>
       <c r="B479" s="18"/>
       <c r="C479" s="18"/>
@@ -7344,7 +7347,7 @@
       <c r="E479" s="19"/>
       <c r="F479" s="16"/>
     </row>
-    <row r="480" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="18"/>
       <c r="B480" s="18"/>
       <c r="C480" s="18"/>
@@ -7352,7 +7355,7 @@
       <c r="E480" s="19"/>
       <c r="F480" s="16"/>
     </row>
-    <row r="481" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="18"/>
       <c r="B481" s="18"/>
       <c r="C481" s="18"/>
@@ -7360,7 +7363,7 @@
       <c r="E481" s="19"/>
       <c r="F481" s="16"/>
     </row>
-    <row r="482" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="18"/>
       <c r="B482" s="18"/>
       <c r="C482" s="18"/>
@@ -7368,7 +7371,7 @@
       <c r="E482" s="19"/>
       <c r="F482" s="16"/>
     </row>
-    <row r="483" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="18"/>
       <c r="B483" s="18"/>
       <c r="C483" s="18"/>
@@ -7376,7 +7379,7 @@
       <c r="E483" s="19"/>
       <c r="F483" s="16"/>
     </row>
-    <row r="484" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="18"/>
       <c r="B484" s="18"/>
       <c r="C484" s="18"/>
@@ -7384,7 +7387,7 @@
       <c r="E484" s="19"/>
       <c r="F484" s="16"/>
     </row>
-    <row r="485" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="18"/>
       <c r="B485" s="18"/>
       <c r="C485" s="18"/>
@@ -7392,7 +7395,7 @@
       <c r="E485" s="19"/>
       <c r="F485" s="16"/>
     </row>
-    <row r="486" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="18"/>
       <c r="B486" s="18"/>
       <c r="C486" s="18"/>
@@ -7400,7 +7403,7 @@
       <c r="E486" s="19"/>
       <c r="F486" s="16"/>
     </row>
-    <row r="487" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="18"/>
       <c r="B487" s="18"/>
       <c r="C487" s="18"/>
@@ -7408,7 +7411,7 @@
       <c r="E487" s="19"/>
       <c r="F487" s="16"/>
     </row>
-    <row r="488" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="18"/>
       <c r="B488" s="18"/>
       <c r="C488" s="18"/>
@@ -7416,7 +7419,7 @@
       <c r="E488" s="19"/>
       <c r="F488" s="16"/>
     </row>
-    <row r="489" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="18"/>
       <c r="B489" s="18"/>
       <c r="C489" s="18"/>
@@ -7424,7 +7427,7 @@
       <c r="E489" s="19"/>
       <c r="F489" s="16"/>
     </row>
-    <row r="490" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="18"/>
       <c r="B490" s="18"/>
       <c r="C490" s="18"/>
@@ -7432,7 +7435,7 @@
       <c r="E490" s="19"/>
       <c r="F490" s="16"/>
     </row>
-    <row r="491" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="18"/>
       <c r="B491" s="18"/>
       <c r="C491" s="18"/>
@@ -7440,7 +7443,7 @@
       <c r="E491" s="19"/>
       <c r="F491" s="16"/>
     </row>
-    <row r="492" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="18"/>
       <c r="B492" s="18"/>
       <c r="C492" s="18"/>
@@ -7448,7 +7451,7 @@
       <c r="E492" s="19"/>
       <c r="F492" s="16"/>
     </row>
-    <row r="493" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="18"/>
       <c r="B493" s="18"/>
       <c r="C493" s="18"/>
@@ -7456,7 +7459,7 @@
       <c r="E493" s="19"/>
       <c r="F493" s="16"/>
     </row>
-    <row r="494" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="18"/>
       <c r="B494" s="18"/>
       <c r="C494" s="18"/>
@@ -7464,7 +7467,7 @@
       <c r="E494" s="19"/>
       <c r="F494" s="16"/>
     </row>
-    <row r="495" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="18"/>
       <c r="B495" s="18"/>
       <c r="C495" s="18"/>
@@ -7472,7 +7475,7 @@
       <c r="E495" s="19"/>
       <c r="F495" s="16"/>
     </row>
-    <row r="496" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="18"/>
       <c r="B496" s="18"/>
       <c r="C496" s="18"/>
@@ -7480,7 +7483,7 @@
       <c r="E496" s="19"/>
       <c r="F496" s="16"/>
     </row>
-    <row r="497" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="18"/>
       <c r="B497" s="18"/>
       <c r="C497" s="18"/>
@@ -7488,7 +7491,7 @@
       <c r="E497" s="19"/>
       <c r="F497" s="16"/>
     </row>
-    <row r="498" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="18"/>
       <c r="B498" s="18"/>
       <c r="C498" s="18"/>
@@ -7496,7 +7499,7 @@
       <c r="E498" s="19"/>
       <c r="F498" s="16"/>
     </row>
-    <row r="499" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="18"/>
       <c r="B499" s="18"/>
       <c r="C499" s="18"/>
@@ -7504,7 +7507,7 @@
       <c r="E499" s="19"/>
       <c r="F499" s="16"/>
     </row>
-    <row r="500" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="18"/>
       <c r="B500" s="18"/>
       <c r="C500" s="18"/>
@@ -7512,7 +7515,7 @@
       <c r="E500" s="19"/>
       <c r="F500" s="16"/>
     </row>
-    <row r="501" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="18"/>
       <c r="B501" s="18"/>
       <c r="C501" s="18"/>
@@ -7520,7 +7523,7 @@
       <c r="E501" s="19"/>
       <c r="F501" s="16"/>
     </row>
-    <row r="502" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="18"/>
       <c r="B502" s="18"/>
       <c r="C502" s="18"/>
@@ -7528,7 +7531,7 @@
       <c r="E502" s="19"/>
       <c r="F502" s="16"/>
     </row>
-    <row r="503" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="18"/>
       <c r="B503" s="18"/>
       <c r="C503" s="18"/>
@@ -7536,7 +7539,7 @@
       <c r="E503" s="19"/>
       <c r="F503" s="16"/>
     </row>
-    <row r="504" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="18"/>
       <c r="B504" s="18"/>
       <c r="C504" s="18"/>
@@ -7544,7 +7547,7 @@
       <c r="E504" s="19"/>
       <c r="F504" s="16"/>
     </row>
-    <row r="505" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="18"/>
       <c r="B505" s="18"/>
       <c r="C505" s="18"/>
@@ -7552,7 +7555,7 @@
       <c r="E505" s="19"/>
       <c r="F505" s="16"/>
     </row>
-    <row r="506" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="18"/>
       <c r="B506" s="18"/>
       <c r="C506" s="18"/>
@@ -7560,7 +7563,7 @@
       <c r="E506" s="19"/>
       <c r="F506" s="16"/>
     </row>
-    <row r="507" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="18"/>
       <c r="B507" s="18"/>
       <c r="C507" s="18"/>
@@ -7568,7 +7571,7 @@
       <c r="E507" s="19"/>
       <c r="F507" s="16"/>
     </row>
-    <row r="508" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="18"/>
       <c r="B508" s="18"/>
       <c r="C508" s="18"/>
@@ -7576,7 +7579,7 @@
       <c r="E508" s="19"/>
       <c r="F508" s="16"/>
     </row>
-    <row r="509" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="18"/>
       <c r="B509" s="18"/>
       <c r="C509" s="18"/>
@@ -7584,7 +7587,7 @@
       <c r="E509" s="19"/>
       <c r="F509" s="16"/>
     </row>
-    <row r="510" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="18"/>
       <c r="B510" s="18"/>
       <c r="C510" s="18"/>
@@ -7592,7 +7595,7 @@
       <c r="E510" s="19"/>
       <c r="F510" s="16"/>
     </row>
-    <row r="511" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="18"/>
       <c r="B511" s="18"/>
       <c r="C511" s="18"/>
@@ -7600,7 +7603,7 @@
       <c r="E511" s="19"/>
       <c r="F511" s="16"/>
     </row>
-    <row r="512" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="18"/>
       <c r="B512" s="18"/>
       <c r="C512" s="18"/>
@@ -7608,7 +7611,7 @@
       <c r="E512" s="19"/>
       <c r="F512" s="16"/>
     </row>
-    <row r="513" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="18"/>
       <c r="B513" s="18"/>
       <c r="C513" s="18"/>
@@ -7616,7 +7619,7 @@
       <c r="E513" s="19"/>
       <c r="F513" s="16"/>
     </row>
-    <row r="514" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="18"/>
       <c r="B514" s="18"/>
       <c r="C514" s="18"/>
@@ -7624,7 +7627,7 @@
       <c r="E514" s="19"/>
       <c r="F514" s="16"/>
     </row>
-    <row r="515" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="18"/>
       <c r="B515" s="18"/>
       <c r="C515" s="18"/>
@@ -7632,7 +7635,7 @@
       <c r="E515" s="19"/>
       <c r="F515" s="16"/>
     </row>
-    <row r="516" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="18"/>
       <c r="B516" s="18"/>
       <c r="C516" s="18"/>
@@ -7640,7 +7643,7 @@
       <c r="E516" s="19"/>
       <c r="F516" s="16"/>
     </row>
-    <row r="517" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="18"/>
       <c r="B517" s="18"/>
       <c r="C517" s="18"/>
@@ -7648,7 +7651,7 @@
       <c r="E517" s="19"/>
       <c r="F517" s="16"/>
     </row>
-    <row r="518" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="18"/>
       <c r="B518" s="18"/>
       <c r="C518" s="18"/>
@@ -7656,7 +7659,7 @@
       <c r="E518" s="19"/>
       <c r="F518" s="16"/>
     </row>
-    <row r="519" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="18"/>
       <c r="B519" s="18"/>
       <c r="C519" s="18"/>
@@ -7664,7 +7667,7 @@
       <c r="E519" s="19"/>
       <c r="F519" s="16"/>
     </row>
-    <row r="520" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="18"/>
       <c r="B520" s="18"/>
       <c r="C520" s="18"/>
@@ -7672,7 +7675,7 @@
       <c r="E520" s="19"/>
       <c r="F520" s="16"/>
     </row>
-    <row r="521" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="18"/>
       <c r="B521" s="18"/>
       <c r="C521" s="18"/>
@@ -7680,7 +7683,7 @@
       <c r="E521" s="19"/>
       <c r="F521" s="16"/>
     </row>
-    <row r="522" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="18"/>
       <c r="B522" s="18"/>
       <c r="C522" s="18"/>
@@ -7688,7 +7691,7 @@
       <c r="E522" s="19"/>
       <c r="F522" s="16"/>
     </row>
-    <row r="523" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="18"/>
       <c r="B523" s="18"/>
       <c r="C523" s="18"/>
@@ -7696,7 +7699,7 @@
       <c r="E523" s="19"/>
       <c r="F523" s="16"/>
     </row>
-    <row r="524" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="18"/>
       <c r="B524" s="18"/>
       <c r="C524" s="18"/>
@@ -7704,7 +7707,7 @@
       <c r="E524" s="19"/>
       <c r="F524" s="16"/>
     </row>
-    <row r="525" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="18"/>
       <c r="B525" s="18"/>
       <c r="C525" s="18"/>
@@ -7712,7 +7715,7 @@
       <c r="E525" s="19"/>
       <c r="F525" s="16"/>
     </row>
-    <row r="526" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="18"/>
       <c r="B526" s="18"/>
       <c r="C526" s="18"/>
@@ -7720,7 +7723,7 @@
       <c r="E526" s="19"/>
       <c r="F526" s="16"/>
     </row>
-    <row r="527" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="18"/>
       <c r="B527" s="18"/>
       <c r="C527" s="18"/>
@@ -7728,7 +7731,7 @@
       <c r="E527" s="19"/>
       <c r="F527" s="16"/>
     </row>
-    <row r="528" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="18"/>
       <c r="B528" s="18"/>
       <c r="C528" s="18"/>
@@ -7736,7 +7739,7 @@
       <c r="E528" s="19"/>
       <c r="F528" s="16"/>
     </row>
-    <row r="529" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="18"/>
       <c r="B529" s="18"/>
       <c r="C529" s="18"/>
@@ -7744,7 +7747,7 @@
       <c r="E529" s="19"/>
       <c r="F529" s="16"/>
     </row>
-    <row r="530" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="18"/>
       <c r="B530" s="18"/>
       <c r="C530" s="18"/>
@@ -7766,17 +7769,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7797,7 +7800,7 @@
         <v>ATFM slot adherence</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -7819,7 +7822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>8</v>
       </c>
@@ -7837,7 +7840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="str">
         <f>APT_ATFM_ADH_LOC!A4</f>
         <v>Period: JAN-APR</v>
@@ -7848,35 +7851,35 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="30">
         <f t="shared" ref="D6:D45" si="0">1-(F6/E6)</f>
@@ -7889,15 +7892,15 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="30">
         <f t="shared" si="0"/>
@@ -7910,15 +7913,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="30">
         <f t="shared" si="0"/>
@@ -7931,15 +7934,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="30">
         <f t="shared" si="0"/>
@@ -7952,15 +7955,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="30">
         <f t="shared" si="0"/>
@@ -7973,15 +7976,15 @@
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="30">
         <f t="shared" si="0"/>
@@ -7994,15 +7997,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="30">
         <f t="shared" si="0"/>
@@ -8015,15 +8018,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="30">
         <f t="shared" si="0"/>
@@ -8036,15 +8039,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="30">
         <f t="shared" si="0"/>
@@ -8057,15 +8060,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="30">
         <f t="shared" si="0"/>
@@ -8078,15 +8081,15 @@
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="30">
         <f t="shared" si="0"/>
@@ -8099,15 +8102,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="30">
         <f t="shared" si="0"/>
@@ -8120,15 +8123,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="30">
         <f t="shared" si="0"/>
@@ -8141,15 +8144,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="30">
         <f t="shared" si="0"/>
@@ -8162,15 +8165,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="30">
         <f t="shared" si="0"/>
@@ -8183,15 +8186,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="30">
         <f t="shared" si="0"/>
@@ -8204,15 +8207,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="30">
         <f t="shared" si="0"/>
@@ -8225,15 +8228,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="30">
         <f t="shared" si="0"/>
@@ -8246,15 +8249,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="30">
         <f t="shared" si="0"/>
@@ -8267,15 +8270,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="30">
         <f t="shared" si="0"/>
@@ -8288,15 +8291,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="30">
         <f t="shared" si="0"/>
@@ -8309,15 +8312,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="30">
         <f t="shared" si="0"/>
@@ -8330,15 +8333,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="30">
         <f t="shared" si="0"/>
@@ -8351,15 +8354,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="30">
         <f t="shared" si="0"/>
@@ -8372,15 +8375,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="30">
         <f t="shared" si="0"/>
@@ -8393,15 +8396,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="30">
         <f t="shared" si="0"/>
@@ -8414,15 +8417,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="30">
         <f t="shared" si="0"/>
@@ -8435,15 +8438,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="30">
         <f t="shared" si="0"/>
@@ -8456,15 +8459,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="30">
         <f t="shared" si="0"/>
@@ -8477,15 +8480,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="30">
         <f t="shared" si="0"/>
@@ -8498,15 +8501,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="30">
         <f t="shared" si="0"/>
@@ -8519,15 +8522,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37" s="30">
         <f t="shared" si="0"/>
@@ -8540,15 +8543,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D38" s="30">
         <f t="shared" si="0"/>
@@ -8561,15 +8564,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39" s="30">
         <f t="shared" si="0"/>
@@ -8582,15 +8585,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40" s="30">
         <f t="shared" si="0"/>
@@ -8603,15 +8606,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41" s="30">
         <f t="shared" si="0"/>
@@ -8624,15 +8627,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="0"/>
@@ -8645,15 +8648,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="0"/>
@@ -8666,15 +8669,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44" s="30">
         <f t="shared" si="0"/>
@@ -8687,15 +8690,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" s="30">
         <f t="shared" si="0"/>
@@ -8708,29 +8711,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="31"/>
       <c r="F46" s="31"/>
     </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D47" s="30">
         <f t="shared" ref="D47:D53" si="1">1-(F47/E47)</f>
@@ -8743,15 +8746,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D48" s="30">
         <f t="shared" si="1"/>
@@ -8764,15 +8767,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D49" s="30">
         <f t="shared" si="1"/>
@@ -8785,15 +8788,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D50" s="30">
         <f t="shared" si="1"/>
@@ -8806,15 +8809,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D51" s="30">
         <f t="shared" si="1"/>
@@ -8827,15 +8830,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D52" s="30">
         <f t="shared" si="1"/>
@@ -8848,15 +8851,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D53" s="30">
         <f t="shared" si="1"/>
@@ -8869,15 +8872,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="31">
@@ -8887,15 +8890,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D55" s="30">
         <f>1-(F55/E55)</f>
@@ -8908,29 +8911,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D56" s="30"/>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
     </row>
-    <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D57" s="30">
         <f t="shared" ref="D57:D138" si="2">1-(F57/E57)</f>
@@ -8943,15 +8946,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D58" s="30">
         <f t="shared" si="2"/>
@@ -8964,15 +8967,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D59" s="30">
         <f t="shared" si="2"/>
@@ -8985,15 +8988,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D60" s="30">
         <f t="shared" si="2"/>
@@ -9006,15 +9009,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D61" s="30">
         <f t="shared" si="2"/>
@@ -9027,15 +9030,15 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D62" s="30">
         <f t="shared" si="2"/>
@@ -9048,15 +9051,15 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D63" s="30">
         <f t="shared" si="2"/>
@@ -9069,15 +9072,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D64" s="30">
         <f t="shared" si="2"/>
@@ -9090,15 +9093,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D65" s="30">
         <f t="shared" si="2"/>
@@ -9111,15 +9114,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D66" s="30">
         <f t="shared" si="2"/>
@@ -9132,15 +9135,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D67" s="30">
         <f t="shared" si="2"/>
@@ -9153,15 +9156,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D68" s="30">
         <f t="shared" si="2"/>
@@ -9174,15 +9177,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D69" s="30">
         <f t="shared" si="2"/>
@@ -9195,15 +9198,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D70" s="30">
         <f t="shared" si="2"/>
@@ -9216,15 +9219,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D71" s="30">
         <f t="shared" si="2"/>
@@ -9237,15 +9240,15 @@
         <v>479</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D72" s="30">
         <f t="shared" si="2"/>
@@ -9258,15 +9261,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D73" s="30">
         <f t="shared" si="2"/>
@@ -9279,15 +9282,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D74" s="30">
         <f t="shared" si="2"/>
@@ -9300,15 +9303,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D75" s="30">
         <f t="shared" si="2"/>
@@ -9321,15 +9324,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D76" s="30">
         <f t="shared" si="2"/>
@@ -9342,15 +9345,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D77" s="30">
         <f t="shared" si="2"/>
@@ -9363,15 +9366,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D78" s="30">
         <f t="shared" si="2"/>
@@ -9384,15 +9387,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D79" s="30">
         <f t="shared" si="2"/>
@@ -9405,15 +9408,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D80" s="30">
         <f t="shared" si="2"/>
@@ -9426,15 +9429,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D81" s="30">
         <f t="shared" si="2"/>
@@ -9447,15 +9450,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D82" s="30">
         <f t="shared" si="2"/>
@@ -9468,15 +9471,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D83" s="30">
         <f t="shared" si="2"/>
@@ -9489,15 +9492,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D84" s="30">
         <f t="shared" si="2"/>
@@ -9510,15 +9513,15 @@
         <v>576</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D85" s="30">
         <f t="shared" si="2"/>
@@ -9531,15 +9534,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D86" s="30">
         <f t="shared" si="2"/>
@@ -9552,15 +9555,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D87" s="30">
         <f t="shared" si="2"/>
@@ -9573,15 +9576,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D88" s="30">
         <f t="shared" si="2"/>
@@ -9594,15 +9597,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D89" s="30">
         <f t="shared" si="2"/>
@@ -9615,15 +9618,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D90" s="30">
         <f t="shared" si="2"/>
@@ -9636,15 +9639,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D91" s="30">
         <f t="shared" si="2"/>
@@ -9657,15 +9660,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D92" s="30">
         <f t="shared" si="2"/>
@@ -9678,15 +9681,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D93" s="30">
         <f t="shared" si="2"/>
@@ -9699,15 +9702,15 @@
         <v>768</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D94" s="30">
         <f t="shared" si="2"/>
@@ -9720,15 +9723,15 @@
         <v>675</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D95" s="30">
         <f t="shared" si="2"/>
@@ -9741,15 +9744,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D96" s="30">
         <f t="shared" si="2"/>
@@ -9762,15 +9765,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D97" s="30">
         <f t="shared" si="2"/>
@@ -9783,15 +9786,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D98" s="30">
         <f t="shared" si="2"/>
@@ -9804,15 +9807,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D99" s="30">
         <f t="shared" si="2"/>
@@ -9825,15 +9828,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D100" s="30">
         <f t="shared" si="2"/>
@@ -9846,15 +9849,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D101" s="30">
         <f t="shared" si="2"/>
@@ -9867,15 +9870,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D102" s="30">
         <f t="shared" si="2"/>
@@ -9888,15 +9891,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D103" s="30">
         <f t="shared" si="2"/>
@@ -9909,15 +9912,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D104" s="30">
         <f t="shared" si="2"/>
@@ -9930,15 +9933,15 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D105" s="30">
         <f t="shared" si="2"/>
@@ -9951,15 +9954,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D106" s="30">
         <f t="shared" si="2"/>
@@ -9972,15 +9975,15 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D107" s="30">
         <f t="shared" si="2"/>
@@ -9993,15 +9996,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D108" s="30">
         <f t="shared" si="2"/>
@@ -10014,15 +10017,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D109" s="30">
         <f t="shared" si="2"/>
@@ -10035,15 +10038,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D110" s="30">
         <f t="shared" si="2"/>
@@ -10056,15 +10059,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D111" s="30">
         <f t="shared" si="2"/>
@@ -10077,15 +10080,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D112" s="30">
         <f t="shared" si="2"/>
@@ -10098,15 +10101,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D113" s="30">
         <f t="shared" si="2"/>
@@ -10119,15 +10122,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D114" s="30">
         <f t="shared" si="2"/>
@@ -10140,15 +10143,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D115" s="30">
         <f t="shared" si="2"/>
@@ -10161,15 +10164,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D116" s="30">
         <f t="shared" si="2"/>
@@ -10182,15 +10185,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D117" s="30">
         <f t="shared" si="2"/>
@@ -10203,15 +10206,15 @@
         <v>302</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D118" s="30">
         <f t="shared" si="2"/>
@@ -10224,15 +10227,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D119" s="30">
         <f t="shared" si="2"/>
@@ -10245,15 +10248,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D120" s="30">
         <f t="shared" si="2"/>
@@ -10266,15 +10269,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D121" s="30">
         <f t="shared" si="2"/>
@@ -10287,15 +10290,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D122" s="30">
         <f t="shared" si="2"/>
@@ -10308,15 +10311,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D123" s="30">
         <f t="shared" si="2"/>
@@ -10329,15 +10332,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D124" s="30">
         <f t="shared" si="2"/>
@@ -10350,15 +10353,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D125" s="30">
         <f t="shared" si="2"/>
@@ -10371,15 +10374,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D126" s="30">
         <f t="shared" si="2"/>
@@ -10392,15 +10395,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D127" s="30">
         <f t="shared" si="2"/>
@@ -10413,15 +10416,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D128" s="30">
         <f t="shared" si="2"/>
@@ -10434,15 +10437,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D129" s="30">
         <f t="shared" si="2"/>
@@ -10455,15 +10458,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D130" s="30">
         <f t="shared" si="2"/>
@@ -10476,15 +10479,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D131" s="30">
         <f t="shared" si="2"/>
@@ -10497,15 +10500,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D132" s="30">
         <f t="shared" si="2"/>
@@ -10518,15 +10521,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D133" s="30">
         <f t="shared" si="2"/>
@@ -10539,15 +10542,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C134" s="28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D134" s="30">
         <f t="shared" si="2"/>
@@ -10560,15 +10563,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D135" s="30">
         <f t="shared" si="2"/>
@@ -10581,15 +10584,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D136" s="30">
         <f t="shared" si="2"/>
@@ -10602,15 +10605,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D137" s="30">
         <f t="shared" si="2"/>
@@ -10623,15 +10626,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D138" s="30">
         <f t="shared" si="2"/>
@@ -10644,29 +10647,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D139" s="30"/>
       <c r="E139" s="31"/>
       <c r="F139" s="31"/>
     </row>
-    <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D140" s="30">
         <f t="shared" ref="D140:D150" si="3">1-(F140/E140)</f>
@@ -10679,15 +10682,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B141" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D141" s="30">
         <f t="shared" si="3"/>
@@ -10700,15 +10703,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B142" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C142" s="28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D142" s="30">
         <f t="shared" si="3"/>
@@ -10721,15 +10724,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B143" s="28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D143" s="30">
         <f t="shared" si="3"/>
@@ -10742,15 +10745,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B144" s="28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D144" s="30">
         <f t="shared" si="3"/>
@@ -10763,15 +10766,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D145" s="30">
         <f t="shared" si="3"/>
@@ -10784,15 +10787,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B146" s="28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D146" s="30">
         <f t="shared" si="3"/>
@@ -10805,15 +10808,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D147" s="30">
         <f t="shared" si="3"/>
@@ -10826,15 +10829,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D148" s="30">
         <f t="shared" si="3"/>
@@ -10847,15 +10850,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D149" s="30">
         <f t="shared" si="3"/>
@@ -10868,15 +10871,15 @@
         <v>490</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D150" s="30">
         <f t="shared" si="3"/>
@@ -10889,7 +10892,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="28"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -10911,61 +10914,61 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35">
         <v>44351</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="36" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>44392</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="39"/>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
